--- a/doc/results/FAIR-results.xlsx
+++ b/doc/results/FAIR-results.xlsx
@@ -804,7 +804,7 @@
     <col min="4" max="4" bestFit="true" customWidth="true" width="16.6328125" collapsed="false"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="6.14453125" collapsed="false"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="6.14453125" collapsed="false"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="6.14453125" collapsed="false"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="7.3984375" collapsed="false"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="6.14453125" collapsed="false"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="20.08984375" collapsed="false"/>
     <col min="10" max="10" bestFit="true" customWidth="true" width="7.3984375" collapsed="false"/>
@@ -895,13 +895,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C2" t="n" s="1">
-        <v>343.0</v>
+        <v>1080.0</v>
       </c>
       <c r="D2" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E2" t="n" s="1">
         <v>65.0</v>
@@ -910,7 +910,7 @@
         <v>88.0</v>
       </c>
       <c r="G2" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H2" t="n" s="1">
         <v>20.0</v>
@@ -963,13 +963,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n" s="1">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C3" t="n" s="1">
-        <v>923.0</v>
+        <v>910.0</v>
       </c>
       <c r="D3" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E3" t="n" s="1">
         <v>51.0</v>
@@ -978,7 +978,7 @@
         <v>88.0</v>
       </c>
       <c r="G3" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H3" t="n" s="1">
         <v>40.0</v>
@@ -1031,13 +1031,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n" s="1">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="C4" t="n" s="1">
-        <v>1030.0</v>
+        <v>1290.0</v>
       </c>
       <c r="D4" t="n" s="1">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="E4" t="n" s="1">
         <v>87.0</v>
@@ -1046,7 +1046,7 @@
         <v>94.0</v>
       </c>
       <c r="G4" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H4" t="n" s="1">
         <v>80.0</v>
@@ -1099,13 +1099,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C5" t="n" s="1">
-        <v>425.0</v>
+        <v>874.0</v>
       </c>
       <c r="D5" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E5" t="n" s="1">
         <v>51.0</v>
@@ -1114,7 +1114,7 @@
         <v>88.0</v>
       </c>
       <c r="G5" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H5" t="n" s="1">
         <v>50.0</v>
@@ -1167,13 +1167,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n" s="1">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C6" t="n" s="1">
-        <v>427.0</v>
+        <v>994.0</v>
       </c>
       <c r="D6" t="n" s="1">
-        <v>81.0</v>
+        <v>85.0</v>
       </c>
       <c r="E6" t="n" s="1">
         <v>75.0</v>
@@ -1182,7 +1182,7 @@
         <v>94.0</v>
       </c>
       <c r="G6" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H6" t="n" s="1">
         <v>80.0</v>
@@ -1235,13 +1235,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n" s="1">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="C7" t="n" s="1">
-        <v>429.0</v>
+        <v>816.0</v>
       </c>
       <c r="D7" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E7" t="n" s="1">
         <v>51.0</v>
@@ -1250,7 +1250,7 @@
         <v>88.0</v>
       </c>
       <c r="G7" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H7" t="n" s="1">
         <v>50.0</v>
@@ -1303,13 +1303,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n" s="1">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="C8" t="n" s="1">
-        <v>1155.0</v>
+        <v>1485.0</v>
       </c>
       <c r="D8" t="n" s="1">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="E8" t="n" s="1">
         <v>87.0</v>
@@ -1318,7 +1318,7 @@
         <v>88.0</v>
       </c>
       <c r="G8" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H8" t="n" s="1">
         <v>80.0</v>
@@ -1371,13 +1371,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n" s="1">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="C9" t="n" s="1">
-        <v>807.0</v>
+        <v>1201.0</v>
       </c>
       <c r="D9" t="n" s="1">
-        <v>74.0</v>
+        <v>79.0</v>
       </c>
       <c r="E9" t="n" s="1">
         <v>78.0</v>
@@ -1386,7 +1386,7 @@
         <v>94.0</v>
       </c>
       <c r="G9" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H9" t="n" s="1">
         <v>40.0</v>
@@ -1439,13 +1439,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C10" t="n" s="1">
-        <v>446.0</v>
+        <v>891.0</v>
       </c>
       <c r="D10" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E10" t="n" s="1">
         <v>51.0</v>
@@ -1454,7 +1454,7 @@
         <v>88.0</v>
       </c>
       <c r="G10" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H10" t="n" s="1">
         <v>50.0</v>
@@ -1507,13 +1507,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n" s="1">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C11" t="n" s="1">
-        <v>603.0</v>
+        <v>1090.0</v>
       </c>
       <c r="D11" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E11" t="n" s="1">
         <v>65.0</v>
@@ -1522,7 +1522,7 @@
         <v>94.0</v>
       </c>
       <c r="G11" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H11" t="n" s="1">
         <v>20.0</v>
@@ -1575,13 +1575,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C12" t="n" s="1">
-        <v>985.0</v>
+        <v>1348.0</v>
       </c>
       <c r="D12" t="n" s="1">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="E12" t="n" s="1">
         <v>75.0</v>
@@ -1590,7 +1590,7 @@
         <v>88.0</v>
       </c>
       <c r="G12" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H12" t="n" s="1">
         <v>60.0</v>
@@ -1643,13 +1643,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n" s="1">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="C13" t="n" s="1">
-        <v>885.0</v>
+        <v>951.0</v>
       </c>
       <c r="D13" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E13" t="n" s="1">
         <v>51.0</v>
@@ -1658,7 +1658,7 @@
         <v>88.0</v>
       </c>
       <c r="G13" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H13" t="n" s="1">
         <v>60.0</v>
@@ -1711,13 +1711,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n" s="1">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="C14" t="n" s="1">
-        <v>142.0</v>
+        <v>558.0</v>
       </c>
       <c r="D14" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E14" t="n" s="1">
         <v>65.0</v>
@@ -1726,7 +1726,7 @@
         <v>88.0</v>
       </c>
       <c r="G14" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H14" t="n" s="1">
         <v>20.0</v>
@@ -1779,13 +1779,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n" s="1">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C15" t="n" s="1">
-        <v>1604.0</v>
+        <v>2106.0</v>
       </c>
       <c r="D15" t="n" s="1">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="E15" t="n" s="1">
         <v>65.0</v>
@@ -1794,7 +1794,7 @@
         <v>88.0</v>
       </c>
       <c r="G15" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H15" t="n" s="1">
         <v>50.0</v>
@@ -1847,13 +1847,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n" s="1">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C16" t="n" s="1">
-        <v>425.0</v>
+        <v>735.0</v>
       </c>
       <c r="D16" t="n" s="1">
-        <v>79.0</v>
+        <v>84.0</v>
       </c>
       <c r="E16" t="n" s="1">
         <v>75.0</v>
@@ -1862,7 +1862,7 @@
         <v>88.0</v>
       </c>
       <c r="G16" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H16" t="n" s="1">
         <v>80.0</v>
@@ -1915,13 +1915,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n" s="1">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C17" t="n" s="1">
-        <v>922.0</v>
+        <v>1218.0</v>
       </c>
       <c r="D17" t="n" s="1">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="E17" t="n" s="1">
         <v>87.0</v>
@@ -1930,7 +1930,7 @@
         <v>88.0</v>
       </c>
       <c r="G17" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H17" t="n" s="1">
         <v>80.0</v>
@@ -1983,13 +1983,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n" s="1">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C18" t="n" s="1">
-        <v>897.0</v>
+        <v>1183.0</v>
       </c>
       <c r="D18" t="n" s="1">
-        <v>73.0</v>
+        <v>78.0</v>
       </c>
       <c r="E18" t="n" s="1">
         <v>65.0</v>
@@ -1998,7 +1998,7 @@
         <v>94.0</v>
       </c>
       <c r="G18" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H18" t="n" s="1">
         <v>60.0</v>
@@ -2051,13 +2051,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C19" t="n" s="1">
-        <v>2196.0</v>
+        <v>2846.0</v>
       </c>
       <c r="D19" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E19" t="n" s="1">
         <v>65.0</v>
@@ -2066,7 +2066,7 @@
         <v>94.0</v>
       </c>
       <c r="G19" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H19" t="n" s="1">
         <v>20.0</v>
@@ -2119,13 +2119,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n" s="1">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="C20" t="n" s="1">
-        <v>293.0</v>
+        <v>805.0</v>
       </c>
       <c r="D20" t="n" s="1">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="E20" t="n" s="1">
         <v>29.0</v>
@@ -2134,7 +2134,7 @@
         <v>88.0</v>
       </c>
       <c r="G20" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H20" t="n" s="1">
         <v>30.0</v>
@@ -2187,13 +2187,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n" s="1">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="C21" t="n" s="1">
-        <v>315.0</v>
+        <v>1036.0</v>
       </c>
       <c r="D21" t="n" s="1">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="E21" t="n" s="1">
         <v>58.0</v>
@@ -2202,7 +2202,7 @@
         <v>88.0</v>
       </c>
       <c r="G21" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H21" t="n" s="1">
         <v>20.0</v>
@@ -2255,13 +2255,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n" s="1">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C22" t="n" s="1">
-        <v>1918.0</v>
+        <v>2188.0</v>
       </c>
       <c r="D22" t="n" s="1">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="E22" t="n" s="1">
         <v>65.0</v>
@@ -2270,7 +2270,7 @@
         <v>88.0</v>
       </c>
       <c r="G22" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H22" t="n" s="1">
         <v>50.0</v>
@@ -2323,13 +2323,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C23" t="n" s="1">
-        <v>480.0</v>
+        <v>1097.0</v>
       </c>
       <c r="D23" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E23" t="n" s="1">
         <v>51.0</v>
@@ -2338,7 +2338,7 @@
         <v>88.0</v>
       </c>
       <c r="G23" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H23" t="n" s="1">
         <v>40.0</v>
@@ -2391,13 +2391,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n" s="1">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C24" t="n" s="1">
-        <v>758.0</v>
+        <v>1210.0</v>
       </c>
       <c r="D24" t="n" s="1">
-        <v>72.0</v>
+        <v>77.0</v>
       </c>
       <c r="E24" t="n" s="1">
         <v>78.0</v>
@@ -2406,7 +2406,7 @@
         <v>94.0</v>
       </c>
       <c r="G24" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H24" t="n" s="1">
         <v>30.0</v>
@@ -2459,13 +2459,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n" s="1">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="C25" t="n" s="1">
-        <v>294.0</v>
+        <v>667.0</v>
       </c>
       <c r="D25" t="n" s="1">
-        <v>64.0</v>
+        <v>68.0</v>
       </c>
       <c r="E25" t="n" s="1">
         <v>58.0</v>
@@ -2474,7 +2474,7 @@
         <v>88.0</v>
       </c>
       <c r="G25" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H25" t="n" s="1">
         <v>30.0</v>
@@ -2527,13 +2527,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C26" t="n" s="1">
-        <v>430.0</v>
+        <v>939.0</v>
       </c>
       <c r="D26" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E26" t="n" s="1">
         <v>51.0</v>
@@ -2542,7 +2542,7 @@
         <v>88.0</v>
       </c>
       <c r="G26" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H26" t="n" s="1">
         <v>40.0</v>
@@ -2595,13 +2595,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n" s="1">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C27" t="n" s="1">
-        <v>846.0</v>
+        <v>1229.0</v>
       </c>
       <c r="D27" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E27" t="n" s="1">
         <v>65.0</v>
@@ -2610,7 +2610,7 @@
         <v>94.0</v>
       </c>
       <c r="G27" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H27" t="n" s="1">
         <v>20.0</v>
@@ -2663,13 +2663,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n" s="1">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="C28" t="n" s="1">
-        <v>855.0</v>
+        <v>1259.0</v>
       </c>
       <c r="D28" t="n" s="1">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="E28" t="n" s="1">
         <v>87.0</v>
@@ -2678,7 +2678,7 @@
         <v>88.0</v>
       </c>
       <c r="G28" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H28" t="n" s="1">
         <v>80.0</v>
@@ -2731,13 +2731,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n" s="1">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="C29" t="n" s="1">
-        <v>502.0</v>
+        <v>1031.0</v>
       </c>
       <c r="D29" t="n" s="1">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="E29" t="n" s="1">
         <v>65.0</v>
@@ -2746,7 +2746,7 @@
         <v>88.0</v>
       </c>
       <c r="G29" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H29" t="n" s="1">
         <v>50.0</v>
@@ -2799,13 +2799,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n" s="1">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="C30" t="n" s="1">
-        <v>766.0</v>
+        <v>1197.0</v>
       </c>
       <c r="D30" t="n" s="1">
-        <v>77.0</v>
+        <v>82.0</v>
       </c>
       <c r="E30" t="n" s="1">
         <v>65.0</v>
@@ -2814,7 +2814,7 @@
         <v>94.0</v>
       </c>
       <c r="G30" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H30" t="n" s="1">
         <v>80.0</v>
@@ -2867,13 +2867,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C31" t="n" s="1">
-        <v>434.0</v>
+        <v>1173.0</v>
       </c>
       <c r="D31" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E31" t="n" s="1">
         <v>51.0</v>
@@ -2882,7 +2882,7 @@
         <v>88.0</v>
       </c>
       <c r="G31" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H31" t="n" s="1">
         <v>40.0</v>
@@ -2935,13 +2935,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n" s="1">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="C32" t="n" s="1">
-        <v>358.0</v>
+        <v>803.0</v>
       </c>
       <c r="D32" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E32" t="n" s="1">
         <v>65.0</v>
@@ -2950,7 +2950,7 @@
         <v>94.0</v>
       </c>
       <c r="G32" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H32" t="n" s="1">
         <v>20.0</v>
@@ -3003,13 +3003,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n" s="1">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C33" t="n" s="1">
-        <v>947.0</v>
+        <v>1472.0</v>
       </c>
       <c r="D33" t="n" s="1">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="E33" t="n" s="1">
         <v>65.0</v>
@@ -3018,7 +3018,7 @@
         <v>94.0</v>
       </c>
       <c r="G33" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H33" t="n" s="1">
         <v>30.0</v>
@@ -3071,13 +3071,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n" s="1">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C34" t="n" s="1">
-        <v>1022.0</v>
+        <v>1798.0</v>
       </c>
       <c r="D34" t="n" s="1">
-        <v>83.0</v>
+        <v>88.0</v>
       </c>
       <c r="E34" t="n" s="1">
         <v>87.0</v>
@@ -3086,7 +3086,7 @@
         <v>94.0</v>
       </c>
       <c r="G34" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H34" t="n" s="1">
         <v>70.0</v>
@@ -3139,13 +3139,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n" s="1">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C35" t="n" s="1">
-        <v>1098.0</v>
+        <v>2134.0</v>
       </c>
       <c r="D35" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E35" t="n" s="1">
         <v>65.0</v>
@@ -3154,7 +3154,7 @@
         <v>94.0</v>
       </c>
       <c r="G35" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H35" t="n" s="1">
         <v>20.0</v>
@@ -3207,13 +3207,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n" s="1">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C36" t="n" s="1">
-        <v>712.0</v>
+        <v>1226.0</v>
       </c>
       <c r="D36" t="n" s="1">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
       <c r="E36" t="n" s="1">
         <v>65.0</v>
@@ -3222,7 +3222,7 @@
         <v>88.0</v>
       </c>
       <c r="G36" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H36" t="n" s="1">
         <v>70.0</v>
@@ -3275,13 +3275,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n" s="1">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="C37" t="n" s="1">
-        <v>823.0</v>
+        <v>2172.0</v>
       </c>
       <c r="D37" t="n" s="1">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="E37" t="n" s="1">
         <v>78.0</v>
@@ -3290,7 +3290,7 @@
         <v>88.0</v>
       </c>
       <c r="G37" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H37" t="n" s="1">
         <v>30.0</v>
@@ -3343,13 +3343,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n" s="1">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C38" t="n" s="1">
-        <v>1013.0</v>
+        <v>1554.0</v>
       </c>
       <c r="D38" t="n" s="1">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="E38" t="n" s="1">
         <v>87.0</v>
@@ -3358,7 +3358,7 @@
         <v>88.0</v>
       </c>
       <c r="G38" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H38" t="n" s="1">
         <v>80.0</v>
@@ -3411,13 +3411,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C39" t="n" s="1">
-        <v>944.0</v>
+        <v>1412.0</v>
       </c>
       <c r="D39" t="n" s="1">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="E39" t="n" s="1">
         <v>78.0</v>
@@ -3426,7 +3426,7 @@
         <v>88.0</v>
       </c>
       <c r="G39" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H39" t="n" s="1">
         <v>40.0</v>
@@ -3479,13 +3479,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n" s="1">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C40" t="n" s="1">
-        <v>657.0</v>
+        <v>1071.0</v>
       </c>
       <c r="D40" t="n" s="1">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="E40" t="n" s="1">
         <v>65.0</v>
@@ -3494,7 +3494,7 @@
         <v>88.0</v>
       </c>
       <c r="G40" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H40" t="n" s="1">
         <v>80.0</v>
@@ -3550,19 +3550,19 @@
         <v>69.0</v>
       </c>
       <c r="C41" t="n" s="1">
-        <v>1010.0</v>
+        <v>2656.0</v>
       </c>
       <c r="D41" t="n" s="1">
         <v>85.0</v>
       </c>
       <c r="E41" t="n" s="1">
-        <v>87.0</v>
+        <v>75.0</v>
       </c>
       <c r="F41" t="n" s="1">
         <v>94.0</v>
       </c>
       <c r="G41" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H41" t="n" s="1">
         <v>80.0</v>
@@ -3615,13 +3615,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n" s="1">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C42" t="n" s="1">
-        <v>488.0</v>
+        <v>793.0</v>
       </c>
       <c r="D42" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E42" t="n" s="1">
         <v>51.0</v>
@@ -3630,7 +3630,7 @@
         <v>88.0</v>
       </c>
       <c r="G42" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H42" t="n" s="1">
         <v>40.0</v>
@@ -3683,13 +3683,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n" s="1">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C43" t="n" s="1">
-        <v>267.0</v>
+        <v>769.0</v>
       </c>
       <c r="D43" t="n" s="1">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="E43" t="n" s="1">
         <v>29.0</v>
@@ -3698,7 +3698,7 @@
         <v>88.0</v>
       </c>
       <c r="G43" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H43" t="n" s="1">
         <v>20.0</v>
@@ -3751,13 +3751,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n" s="1">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="C44" t="n" s="1">
-        <v>90.0</v>
+        <v>509.0</v>
       </c>
       <c r="D44" t="n" s="1">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="E44" t="n" s="1">
         <v>29.0</v>
@@ -3766,7 +3766,7 @@
         <v>88.0</v>
       </c>
       <c r="G44" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H44" t="n" s="1">
         <v>20.0</v>
@@ -3819,13 +3819,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C45" t="n" s="1">
-        <v>728.0</v>
+        <v>1325.0</v>
       </c>
       <c r="D45" t="n" s="1">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="E45" t="n" s="1">
         <v>65.0</v>
@@ -3834,7 +3834,7 @@
         <v>88.0</v>
       </c>
       <c r="G45" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H45" t="n" s="1">
         <v>40.0</v>
@@ -3887,13 +3887,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n" s="1">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C46" t="n" s="1">
-        <v>360.0</v>
+        <v>728.0</v>
       </c>
       <c r="D46" t="n" s="1">
-        <v>67.0</v>
+        <v>72.0</v>
       </c>
       <c r="E46" t="n" s="1">
         <v>58.0</v>
@@ -3902,7 +3902,7 @@
         <v>94.0</v>
       </c>
       <c r="G46" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H46" t="n" s="1">
         <v>40.0</v>
@@ -3955,13 +3955,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n" s="1">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C47" t="n" s="1">
-        <v>425.0</v>
+        <v>869.0</v>
       </c>
       <c r="D47" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E47" t="n" s="1">
         <v>51.0</v>
@@ -3970,7 +3970,7 @@
         <v>88.0</v>
       </c>
       <c r="G47" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H47" t="n" s="1">
         <v>40.0</v>
@@ -4023,13 +4023,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n" s="1">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C48" t="n" s="1">
-        <v>425.0</v>
+        <v>883.0</v>
       </c>
       <c r="D48" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E48" t="n" s="1">
         <v>51.0</v>
@@ -4038,7 +4038,7 @@
         <v>88.0</v>
       </c>
       <c r="G48" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H48" t="n" s="1">
         <v>40.0</v>
@@ -4091,13 +4091,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n" s="1">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C49" t="n" s="1">
-        <v>1391.0</v>
+        <v>1715.0</v>
       </c>
       <c r="D49" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E49" t="n" s="1">
         <v>65.0</v>
@@ -4106,7 +4106,7 @@
         <v>88.0</v>
       </c>
       <c r="G49" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H49" t="n" s="1">
         <v>20.0</v>
@@ -4159,13 +4159,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n" s="1">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="C50" t="n" s="1">
-        <v>2558.0</v>
+        <v>2719.0</v>
       </c>
       <c r="D50" t="n" s="1">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="E50" t="n" s="1">
         <v>29.0</v>
@@ -4174,7 +4174,7 @@
         <v>88.0</v>
       </c>
       <c r="G50" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H50" t="n" s="1">
         <v>60.0</v>
@@ -4227,13 +4227,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n" s="1">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C51" t="n" s="1">
-        <v>449.0</v>
+        <v>1132.0</v>
       </c>
       <c r="D51" t="n" s="1">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="E51" t="n" s="1">
         <v>58.0</v>
@@ -4242,7 +4242,7 @@
         <v>88.0</v>
       </c>
       <c r="G51" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H51" t="n" s="1">
         <v>20.0</v>
@@ -4295,13 +4295,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n" s="1">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C52" t="n" s="1">
-        <v>1003.0</v>
+        <v>1590.0</v>
       </c>
       <c r="D52" t="n" s="1">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="E52" t="n" s="1">
         <v>65.0</v>
@@ -4310,7 +4310,7 @@
         <v>94.0</v>
       </c>
       <c r="G52" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H52" t="n" s="1">
         <v>40.0</v>
@@ -4363,13 +4363,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n" s="1">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C53" t="n" s="1">
-        <v>94.0</v>
+        <v>165.0</v>
       </c>
       <c r="D53" t="n" s="1">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="E53" t="n" s="1">
         <v>29.0</v>
@@ -4378,7 +4378,7 @@
         <v>48.0</v>
       </c>
       <c r="G53" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H53" t="n" s="1">
         <v>20.0</v>
@@ -4399,7 +4399,7 @@
         <v>80.0</v>
       </c>
       <c r="N53" t="n" s="1">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="O53" t="n" s="1">
         <v>0.0</v>
@@ -4408,7 +4408,7 @@
         <v>0.0</v>
       </c>
       <c r="Q53" t="n" s="1">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="R53" t="n" s="1">
         <v>0.0</v>
@@ -4431,13 +4431,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C54" t="n" s="1">
-        <v>724.0</v>
+        <v>1192.0</v>
       </c>
       <c r="D54" t="n" s="1">
-        <v>73.0</v>
+        <v>78.0</v>
       </c>
       <c r="E54" t="n" s="1">
         <v>65.0</v>
@@ -4446,7 +4446,7 @@
         <v>94.0</v>
       </c>
       <c r="G54" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H54" t="n" s="1">
         <v>60.0</v>
@@ -4479,10 +4479,10 @@
         <v>21.0</v>
       </c>
       <c r="R54" t="n" s="1">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="S54" t="n" s="1">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="T54" t="n" s="1">
         <v>32.0</v>
@@ -4499,13 +4499,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n" s="1">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="C55" t="n" s="1">
-        <v>730.0</v>
+        <v>2122.0</v>
       </c>
       <c r="D55" t="n" s="1">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="E55" t="n" s="1">
         <v>78.0</v>
@@ -4514,7 +4514,7 @@
         <v>88.0</v>
       </c>
       <c r="G55" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H55" t="n" s="1">
         <v>40.0</v>
@@ -4567,13 +4567,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n" s="1">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C56" t="n" s="1">
-        <v>132.0</v>
+        <v>592.0</v>
       </c>
       <c r="D56" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E56" t="n" s="1">
         <v>65.0</v>
@@ -4582,7 +4582,7 @@
         <v>88.0</v>
       </c>
       <c r="G56" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H56" t="n" s="1">
         <v>30.0</v>
@@ -4635,13 +4635,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C57" t="n" s="1">
-        <v>1186.0</v>
+        <v>1587.0</v>
       </c>
       <c r="D57" t="n" s="1">
-        <v>72.0</v>
+        <v>77.0</v>
       </c>
       <c r="E57" t="n" s="1">
         <v>65.0</v>
@@ -4650,7 +4650,7 @@
         <v>88.0</v>
       </c>
       <c r="G57" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H57" t="n" s="1">
         <v>60.0</v>
@@ -4703,13 +4703,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n" s="1">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C58" t="n" s="1">
-        <v>935.0</v>
+        <v>1483.0</v>
       </c>
       <c r="D58" t="n" s="1">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="E58" t="n" s="1">
         <v>65.0</v>
@@ -4718,7 +4718,7 @@
         <v>94.0</v>
       </c>
       <c r="G58" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H58" t="n" s="1">
         <v>30.0</v>
@@ -4771,13 +4771,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n" s="1">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C59" t="n" s="1">
-        <v>367.0</v>
+        <v>720.0</v>
       </c>
       <c r="D59" t="n" s="1">
-        <v>56.0</v>
+        <v>61.0</v>
       </c>
       <c r="E59" t="n" s="1">
         <v>29.0</v>
@@ -4786,7 +4786,7 @@
         <v>88.0</v>
       </c>
       <c r="G59" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H59" t="n" s="1">
         <v>50.0</v>
@@ -4839,13 +4839,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n" s="1">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="C60" t="n" s="1">
-        <v>720.0</v>
+        <v>1154.0</v>
       </c>
       <c r="D60" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E60" t="n" s="1">
         <v>65.0</v>
@@ -4854,7 +4854,7 @@
         <v>94.0</v>
       </c>
       <c r="G60" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H60" t="n" s="1">
         <v>20.0</v>
@@ -4907,13 +4907,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n" s="1">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C61" t="n" s="1">
-        <v>391.0</v>
+        <v>774.0</v>
       </c>
       <c r="D61" t="n" s="1">
-        <v>60.0</v>
+        <v>64.0</v>
       </c>
       <c r="E61" t="n" s="1">
         <v>43.0</v>
@@ -4922,7 +4922,7 @@
         <v>94.0</v>
       </c>
       <c r="G61" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H61" t="n" s="1">
         <v>30.0</v>
@@ -4975,13 +4975,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n" s="1">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C62" t="n" s="1">
-        <v>1583.0</v>
+        <v>2389.0</v>
       </c>
       <c r="D62" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E62" t="n" s="1">
         <v>65.0</v>
@@ -4990,7 +4990,7 @@
         <v>88.0</v>
       </c>
       <c r="G62" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H62" t="n" s="1">
         <v>20.0</v>
@@ -5043,13 +5043,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n" s="1">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C63" t="n" s="1">
-        <v>6270.0</v>
+        <v>6870.0</v>
       </c>
       <c r="D63" t="n" s="1">
-        <v>62.0</v>
+        <v>67.0</v>
       </c>
       <c r="E63" t="n" s="1">
         <v>51.0</v>
@@ -5058,7 +5058,7 @@
         <v>94.0</v>
       </c>
       <c r="G63" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H63" t="n" s="1">
         <v>30.0</v>
@@ -5111,13 +5111,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C64" t="n" s="1">
-        <v>510.0</v>
+        <v>961.0</v>
       </c>
       <c r="D64" t="n" s="1">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="E64" t="n" s="1">
         <v>43.0</v>
@@ -5126,7 +5126,7 @@
         <v>88.0</v>
       </c>
       <c r="G64" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H64" t="n" s="1">
         <v>30.0</v>
@@ -5179,13 +5179,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C65" t="n" s="1">
-        <v>482.0</v>
+        <v>1114.0</v>
       </c>
       <c r="D65" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E65" t="n" s="1">
         <v>51.0</v>
@@ -5194,7 +5194,7 @@
         <v>88.0</v>
       </c>
       <c r="G65" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H65" t="n" s="1">
         <v>40.0</v>
@@ -5247,13 +5247,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C66" t="n" s="1">
-        <v>811.0</v>
+        <v>1606.0</v>
       </c>
       <c r="D66" t="n" s="1">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="E66" t="n" s="1">
         <v>78.0</v>
@@ -5262,7 +5262,7 @@
         <v>88.0</v>
       </c>
       <c r="G66" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H66" t="n" s="1">
         <v>30.0</v>
@@ -5315,13 +5315,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n" s="1">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="C67" t="n" s="1">
-        <v>740.0</v>
+        <v>1260.0</v>
       </c>
       <c r="D67" t="n" s="1">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="E67" t="n" s="1">
         <v>65.0</v>
@@ -5330,7 +5330,7 @@
         <v>94.0</v>
       </c>
       <c r="G67" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H67" t="n" s="1">
         <v>30.0</v>
@@ -5383,13 +5383,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n" s="1">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C68" t="n" s="1">
-        <v>268.0</v>
+        <v>711.0</v>
       </c>
       <c r="D68" t="n" s="1">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="E68" t="n" s="1">
         <v>29.0</v>
@@ -5398,7 +5398,7 @@
         <v>88.0</v>
       </c>
       <c r="G68" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H68" t="n" s="1">
         <v>20.0</v>
@@ -5451,13 +5451,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n" s="1">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="C69" t="n" s="1">
-        <v>1032.0</v>
+        <v>1597.0</v>
       </c>
       <c r="D69" t="n" s="1">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="E69" t="n" s="1">
         <v>87.0</v>
@@ -5466,7 +5466,7 @@
         <v>94.0</v>
       </c>
       <c r="G69" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H69" t="n" s="1">
         <v>80.0</v>
@@ -5519,13 +5519,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n" s="1">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="C70" t="n" s="1">
-        <v>470.0</v>
+        <v>1308.0</v>
       </c>
       <c r="D70" t="n" s="1">
-        <v>59.0</v>
+        <v>64.0</v>
       </c>
       <c r="E70" t="n" s="1">
         <v>51.0</v>
@@ -5534,7 +5534,7 @@
         <v>88.0</v>
       </c>
       <c r="G70" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H70" t="n" s="1">
         <v>20.0</v>
@@ -5587,13 +5587,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n" s="1">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C71" t="n" s="1">
-        <v>64.0</v>
+        <v>857.0</v>
       </c>
       <c r="D71" t="n" s="1">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="E71" t="n" s="1">
         <v>29.0</v>
@@ -5602,7 +5602,7 @@
         <v>88.0</v>
       </c>
       <c r="G71" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H71" t="n" s="1">
         <v>20.0</v>
@@ -5655,13 +5655,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C72" t="n" s="1">
-        <v>543.0</v>
+        <v>1047.0</v>
       </c>
       <c r="D72" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E72" t="n" s="1">
         <v>56.0</v>
@@ -5670,7 +5670,7 @@
         <v>88.0</v>
       </c>
       <c r="G72" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H72" t="n" s="1">
         <v>30.0</v>
@@ -5723,13 +5723,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n" s="1">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C73" t="n" s="1">
-        <v>426.0</v>
+        <v>804.0</v>
       </c>
       <c r="D73" t="n" s="1">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="E73" t="n" s="1">
         <v>78.0</v>
@@ -5738,7 +5738,7 @@
         <v>88.0</v>
       </c>
       <c r="G73" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H73" t="n" s="1">
         <v>30.0</v>
@@ -5791,13 +5791,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n" s="1">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="C74" t="n" s="1">
-        <v>824.0</v>
+        <v>1310.0</v>
       </c>
       <c r="D74" t="n" s="1">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="E74" t="n" s="1">
         <v>87.0</v>
@@ -5806,7 +5806,7 @@
         <v>88.0</v>
       </c>
       <c r="G74" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H74" t="n" s="1">
         <v>80.0</v>
@@ -5859,13 +5859,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n" s="1">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C75" t="n" s="1">
-        <v>254.0</v>
+        <v>1089.0</v>
       </c>
       <c r="D75" t="n" s="1">
-        <v>55.0</v>
+        <v>59.0</v>
       </c>
       <c r="E75" t="n" s="1">
         <v>29.0</v>
@@ -5874,7 +5874,7 @@
         <v>88.0</v>
       </c>
       <c r="G75" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H75" t="n" s="1">
         <v>40.0</v>
@@ -5927,13 +5927,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n" s="1">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="C76" t="n" s="1">
-        <v>419.0</v>
+        <v>954.0</v>
       </c>
       <c r="D76" t="n" s="1">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="E76" t="n" s="1">
         <v>43.0</v>
@@ -5942,7 +5942,7 @@
         <v>88.0</v>
       </c>
       <c r="G76" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H76" t="n" s="1">
         <v>30.0</v>
@@ -5963,13 +5963,13 @@
         <v>100.0</v>
       </c>
       <c r="N76" t="n" s="1">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
       <c r="O76" t="n" s="1">
         <v>86.0</v>
       </c>
       <c r="P76" t="n" s="1">
-        <v>21.0</v>
+        <v>37.0</v>
       </c>
       <c r="Q76" t="n" s="1">
         <v>21.0</v>
@@ -5995,13 +5995,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n" s="1">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C77" t="n" s="1">
-        <v>386.0</v>
+        <v>750.0</v>
       </c>
       <c r="D77" t="n" s="1">
-        <v>67.0</v>
+        <v>72.0</v>
       </c>
       <c r="E77" t="n" s="1">
         <v>68.0</v>
@@ -6010,7 +6010,7 @@
         <v>94.0</v>
       </c>
       <c r="G77" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H77" t="n" s="1">
         <v>20.0</v>
@@ -6063,13 +6063,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n" s="1">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="C78" t="n" s="1">
-        <v>996.0</v>
+        <v>1533.0</v>
       </c>
       <c r="D78" t="n" s="1">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="E78" t="n" s="1">
         <v>87.0</v>
@@ -6078,7 +6078,7 @@
         <v>94.0</v>
       </c>
       <c r="G78" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H78" t="n" s="1">
         <v>80.0</v>
@@ -6131,13 +6131,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n" s="1">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C79" t="n" s="1">
-        <v>295.0</v>
+        <v>879.0</v>
       </c>
       <c r="D79" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E79" t="n" s="1">
         <v>65.0</v>
@@ -6146,7 +6146,7 @@
         <v>88.0</v>
       </c>
       <c r="G79" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H79" t="n" s="1">
         <v>20.0</v>
@@ -6199,13 +6199,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n" s="1">
+        <v>62.0</v>
+      </c>
+      <c r="C80" t="n" s="1">
+        <v>633.0</v>
+      </c>
+      <c r="D80" t="n" s="1">
         <v>61.0</v>
-      </c>
-      <c r="C80" t="n" s="1">
-        <v>246.0</v>
-      </c>
-      <c r="D80" t="n" s="1">
-        <v>56.0</v>
       </c>
       <c r="E80" t="n" s="1">
         <v>29.0</v>
@@ -6214,7 +6214,7 @@
         <v>88.0</v>
       </c>
       <c r="G80" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H80" t="n" s="1">
         <v>50.0</v>
@@ -6267,13 +6267,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n" s="1">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="C81" t="n" s="1">
-        <v>75.0</v>
+        <v>318.0</v>
       </c>
       <c r="D81" t="n" s="1">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="E81" t="n" s="1">
         <v>29.0</v>
@@ -6282,7 +6282,7 @@
         <v>88.0</v>
       </c>
       <c r="G81" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H81" t="n" s="1">
         <v>80.0</v>
@@ -6335,13 +6335,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n" s="1">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C82" t="n" s="1">
-        <v>330.0</v>
+        <v>611.0</v>
       </c>
       <c r="D82" t="n" s="1">
-        <v>59.0</v>
+        <v>64.0</v>
       </c>
       <c r="E82" t="n" s="1">
         <v>51.0</v>
@@ -6350,7 +6350,7 @@
         <v>88.0</v>
       </c>
       <c r="G82" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H82" t="n" s="1">
         <v>20.0</v>
@@ -6403,13 +6403,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C83" t="n" s="1">
-        <v>1155.0</v>
+        <v>1720.0</v>
       </c>
       <c r="D83" t="n" s="1">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="E83" t="n" s="1">
         <v>78.0</v>
@@ -6418,7 +6418,7 @@
         <v>88.0</v>
       </c>
       <c r="G83" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H83" t="n" s="1">
         <v>30.0</v>
@@ -6471,13 +6471,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n" s="1">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C84" t="n" s="1">
-        <v>1418.0</v>
+        <v>1783.0</v>
       </c>
       <c r="D84" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E84" t="n" s="1">
         <v>65.0</v>
@@ -6486,7 +6486,7 @@
         <v>88.0</v>
       </c>
       <c r="G84" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H84" t="n" s="1">
         <v>20.0</v>
@@ -6539,13 +6539,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C85" t="n" s="1">
-        <v>516.0</v>
+        <v>1254.0</v>
       </c>
       <c r="D85" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E85" t="n" s="1">
         <v>65.0</v>
@@ -6554,7 +6554,7 @@
         <v>88.0</v>
       </c>
       <c r="G85" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H85" t="n" s="1">
         <v>20.0</v>
@@ -6607,13 +6607,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n" s="1">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C86" t="n" s="1">
-        <v>455.0</v>
+        <v>835.0</v>
       </c>
       <c r="D86" t="n" s="1">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="E86" t="n" s="1">
         <v>43.0</v>
@@ -6622,7 +6622,7 @@
         <v>88.0</v>
       </c>
       <c r="G86" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H86" t="n" s="1">
         <v>30.0</v>
@@ -6675,13 +6675,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C87" t="n" s="1">
-        <v>240.0</v>
+        <v>689.0</v>
       </c>
       <c r="D87" t="n" s="1">
-        <v>55.0</v>
+        <v>59.0</v>
       </c>
       <c r="E87" t="n" s="1">
         <v>29.0</v>
@@ -6690,7 +6690,7 @@
         <v>88.0</v>
       </c>
       <c r="G87" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H87" t="n" s="1">
         <v>40.0</v>
@@ -6743,13 +6743,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n" s="1">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="C88" t="n" s="1">
-        <v>730.0</v>
+        <v>1081.0</v>
       </c>
       <c r="D88" t="n" s="1">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="E88" t="n" s="1">
         <v>65.0</v>
@@ -6758,7 +6758,7 @@
         <v>94.0</v>
       </c>
       <c r="G88" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H88" t="n" s="1">
         <v>40.0</v>
@@ -6811,13 +6811,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n" s="1">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C89" t="n" s="1">
-        <v>628.0</v>
+        <v>2369.0</v>
       </c>
       <c r="D89" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E89" t="n" s="1">
         <v>65.0</v>
@@ -6826,7 +6826,7 @@
         <v>88.0</v>
       </c>
       <c r="G89" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H89" t="n" s="1">
         <v>30.0</v>
@@ -6879,13 +6879,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n" s="1">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C90" t="n" s="1">
-        <v>878.0</v>
+        <v>1886.0</v>
       </c>
       <c r="D90" t="n" s="1">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
       <c r="E90" t="n" s="1">
         <v>78.0</v>
@@ -6894,7 +6894,7 @@
         <v>94.0</v>
       </c>
       <c r="G90" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H90" t="n" s="1">
         <v>20.0</v>
@@ -6947,13 +6947,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n" s="1">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C91" t="n" s="1">
-        <v>684.0</v>
+        <v>533.0</v>
       </c>
       <c r="D91" t="n" s="1">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="E91" t="n" s="1">
         <v>29.0</v>
@@ -6962,7 +6962,7 @@
         <v>48.0</v>
       </c>
       <c r="G91" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H91" t="n" s="1">
         <v>20.0</v>
@@ -7015,13 +7015,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n" s="1">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C92" t="n" s="1">
-        <v>458.0</v>
+        <v>1037.0</v>
       </c>
       <c r="D92" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E92" t="n" s="1">
         <v>51.0</v>
@@ -7030,7 +7030,7 @@
         <v>88.0</v>
       </c>
       <c r="G92" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H92" t="n" s="1">
         <v>50.0</v>
@@ -7083,13 +7083,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n" s="1">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C93" t="n" s="1">
-        <v>768.0</v>
+        <v>1500.0</v>
       </c>
       <c r="D93" t="n" s="1">
-        <v>69.0</v>
+        <v>74.0</v>
       </c>
       <c r="E93" t="n" s="1">
         <v>78.0</v>
@@ -7098,7 +7098,7 @@
         <v>88.0</v>
       </c>
       <c r="G93" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H93" t="n" s="1">
         <v>20.0</v>
@@ -7151,13 +7151,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C94" t="n" s="1">
-        <v>826.0</v>
+        <v>1234.0</v>
       </c>
       <c r="D94" t="n" s="1">
-        <v>77.0</v>
+        <v>82.0</v>
       </c>
       <c r="E94" t="n" s="1">
         <v>65.0</v>
@@ -7166,7 +7166,7 @@
         <v>94.0</v>
       </c>
       <c r="G94" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H94" t="n" s="1">
         <v>80.0</v>
@@ -7219,13 +7219,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C95" t="n" s="1">
-        <v>1122.0</v>
+        <v>2510.0</v>
       </c>
       <c r="D95" t="n" s="1">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="E95" t="n" s="1">
         <v>65.0</v>
@@ -7234,7 +7234,7 @@
         <v>94.0</v>
       </c>
       <c r="G95" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H95" t="n" s="1">
         <v>30.0</v>
@@ -7287,13 +7287,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n" s="1">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C96" t="n" s="1">
-        <v>876.0</v>
+        <v>1507.0</v>
       </c>
       <c r="D96" t="n" s="1">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
       <c r="E96" t="n" s="1">
         <v>78.0</v>
@@ -7302,7 +7302,7 @@
         <v>94.0</v>
       </c>
       <c r="G96" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H96" t="n" s="1">
         <v>20.0</v>
@@ -7355,13 +7355,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n" s="1">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C97" t="n" s="1">
-        <v>451.0</v>
+        <v>874.0</v>
       </c>
       <c r="D97" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E97" t="n" s="1">
         <v>51.0</v>
@@ -7370,7 +7370,7 @@
         <v>88.0</v>
       </c>
       <c r="G97" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H97" t="n" s="1">
         <v>40.0</v>
@@ -7423,13 +7423,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C98" t="n" s="1">
-        <v>1546.0</v>
+        <v>1879.0</v>
       </c>
       <c r="D98" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E98" t="n" s="1">
         <v>65.0</v>
@@ -7438,7 +7438,7 @@
         <v>88.0</v>
       </c>
       <c r="G98" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H98" t="n" s="1">
         <v>20.0</v>
@@ -7494,10 +7494,10 @@
         <v>65.0</v>
       </c>
       <c r="C99" t="n" s="1">
-        <v>771.0</v>
+        <v>2184.0</v>
       </c>
       <c r="D99" t="n" s="1">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="E99" t="n" s="1">
         <v>78.0</v>
@@ -7506,7 +7506,7 @@
         <v>88.0</v>
       </c>
       <c r="G99" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H99" t="n" s="1">
         <v>30.0</v>
@@ -7539,13 +7539,13 @@
         <v>21.0</v>
       </c>
       <c r="R99" t="n" s="1">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="S99" t="n" s="1">
         <v>15.0</v>
       </c>
       <c r="T99" t="n" s="1">
-        <v>86.0</v>
+        <v>67.0</v>
       </c>
       <c r="U99" t="n" s="1">
         <v>23.0</v>
@@ -7559,13 +7559,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n" s="1">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C100" t="n" s="1">
-        <v>496.0</v>
+        <v>853.0</v>
       </c>
       <c r="D100" t="n" s="1">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="E100" t="n" s="1">
         <v>29.0</v>
@@ -7574,7 +7574,7 @@
         <v>88.0</v>
       </c>
       <c r="G100" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H100" t="n" s="1">
         <v>60.0</v>
@@ -7627,13 +7627,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n" s="1">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="C101" t="n" s="1">
-        <v>1197.0</v>
+        <v>2056.0</v>
       </c>
       <c r="D101" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E101" t="n" s="1">
         <v>51.0</v>
@@ -7642,7 +7642,7 @@
         <v>88.0</v>
       </c>
       <c r="G101" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H101" t="n" s="1">
         <v>60.0</v>
@@ -7695,13 +7695,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n" s="1">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C102" t="n" s="1">
-        <v>708.0</v>
+        <v>1477.0</v>
       </c>
       <c r="D102" t="n" s="1">
-        <v>69.0</v>
+        <v>74.0</v>
       </c>
       <c r="E102" t="n" s="1">
         <v>78.0</v>
@@ -7710,7 +7710,7 @@
         <v>88.0</v>
       </c>
       <c r="G102" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H102" t="n" s="1">
         <v>20.0</v>
@@ -7763,13 +7763,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n" s="1">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C103" t="n" s="1">
-        <v>193.0</v>
+        <v>467.0</v>
       </c>
       <c r="D103" t="n" s="1">
-        <v>72.0</v>
+        <v>77.0</v>
       </c>
       <c r="E103" t="n" s="1">
         <v>65.0</v>
@@ -7778,7 +7778,7 @@
         <v>88.0</v>
       </c>
       <c r="G103" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H103" t="n" s="1">
         <v>60.0</v>
@@ -7831,13 +7831,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n" s="1">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C104" t="n" s="1">
-        <v>1108.0</v>
+        <v>1555.0</v>
       </c>
       <c r="D104" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E104" t="n" s="1">
         <v>65.0</v>
@@ -7846,7 +7846,7 @@
         <v>88.0</v>
       </c>
       <c r="G104" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H104" t="n" s="1">
         <v>20.0</v>
@@ -7899,13 +7899,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n" s="1">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C105" t="n" s="1">
-        <v>2011.0</v>
+        <v>2622.0</v>
       </c>
       <c r="D105" t="n" s="1">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="E105" t="n" s="1">
         <v>65.0</v>
@@ -7914,7 +7914,7 @@
         <v>88.0</v>
       </c>
       <c r="G105" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H105" t="n" s="1">
         <v>40.0</v>
@@ -7967,13 +7967,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n" s="1">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C106" t="n" s="1">
-        <v>461.0</v>
+        <v>1039.0</v>
       </c>
       <c r="D106" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E106" t="n" s="1">
         <v>51.0</v>
@@ -7982,7 +7982,7 @@
         <v>88.0</v>
       </c>
       <c r="G106" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H106" t="n" s="1">
         <v>40.0</v>
@@ -8035,13 +8035,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C107" t="n" s="1">
-        <v>1442.0</v>
+        <v>2548.0</v>
       </c>
       <c r="D107" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E107" t="n" s="1">
         <v>65.0</v>
@@ -8050,7 +8050,7 @@
         <v>88.0</v>
       </c>
       <c r="G107" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H107" t="n" s="1">
         <v>30.0</v>
@@ -8103,13 +8103,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C108" t="n" s="1">
-        <v>419.0</v>
+        <v>1387.0</v>
       </c>
       <c r="D108" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E108" t="n" s="1">
         <v>51.0</v>
@@ -8118,7 +8118,7 @@
         <v>88.0</v>
       </c>
       <c r="G108" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H108" t="n" s="1">
         <v>40.0</v>
@@ -8171,13 +8171,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n" s="1">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="C109" t="n" s="1">
-        <v>1154.0</v>
+        <v>1868.0</v>
       </c>
       <c r="D109" t="n" s="1">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="E109" t="n" s="1">
         <v>65.0</v>
@@ -8186,7 +8186,7 @@
         <v>88.0</v>
       </c>
       <c r="G109" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H109" t="n" s="1">
         <v>80.0</v>
@@ -8239,13 +8239,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n" s="1">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C110" t="n" s="1">
-        <v>693.0</v>
+        <v>1271.0</v>
       </c>
       <c r="D110" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E110" t="n" s="1">
         <v>65.0</v>
@@ -8254,7 +8254,7 @@
         <v>94.0</v>
       </c>
       <c r="G110" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H110" t="n" s="1">
         <v>20.0</v>
@@ -8307,13 +8307,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n" s="1">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C111" t="n" s="1">
-        <v>904.0</v>
+        <v>1811.0</v>
       </c>
       <c r="D111" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E111" t="n" s="1">
         <v>65.0</v>
@@ -8322,7 +8322,7 @@
         <v>94.0</v>
       </c>
       <c r="G111" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H111" t="n" s="1">
         <v>20.0</v>
@@ -8375,13 +8375,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n" s="1">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C112" t="n" s="1">
-        <v>782.0</v>
+        <v>1111.0</v>
       </c>
       <c r="D112" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E112" t="n" s="1">
         <v>65.0</v>
@@ -8390,7 +8390,7 @@
         <v>88.0</v>
       </c>
       <c r="G112" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H112" t="n" s="1">
         <v>20.0</v>
@@ -8443,13 +8443,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n" s="1">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="C113" t="n" s="1">
-        <v>50.0</v>
+        <v>476.0</v>
       </c>
       <c r="D113" t="n" s="1">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="E113" t="n" s="1">
         <v>29.0</v>
@@ -8458,7 +8458,7 @@
         <v>88.0</v>
       </c>
       <c r="G113" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H113" t="n" s="1">
         <v>20.0</v>
@@ -8511,13 +8511,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C114" t="n" s="1">
-        <v>441.0</v>
+        <v>1414.0</v>
       </c>
       <c r="D114" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E114" t="n" s="1">
         <v>51.0</v>
@@ -8526,7 +8526,7 @@
         <v>88.0</v>
       </c>
       <c r="G114" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H114" t="n" s="1">
         <v>40.0</v>
@@ -8579,13 +8579,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n" s="1">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C115" t="n" s="1">
-        <v>259.0</v>
+        <v>690.0</v>
       </c>
       <c r="D115" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E115" t="n" s="1">
         <v>65.0</v>
@@ -8594,7 +8594,7 @@
         <v>94.0</v>
       </c>
       <c r="G115" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H115" t="n" s="1">
         <v>20.0</v>
@@ -8647,13 +8647,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n" s="1">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C116" t="n" s="1">
-        <v>135.0</v>
+        <v>376.0</v>
       </c>
       <c r="D116" t="n" s="1">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="E116" t="n" s="1">
         <v>58.0</v>
@@ -8662,7 +8662,7 @@
         <v>88.0</v>
       </c>
       <c r="G116" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H116" t="n" s="1">
         <v>20.0</v>
@@ -8715,13 +8715,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n" s="1">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="C117" t="n" s="1">
-        <v>50.0</v>
+        <v>512.0</v>
       </c>
       <c r="D117" t="n" s="1">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="E117" t="n" s="1">
         <v>29.0</v>
@@ -8730,7 +8730,7 @@
         <v>88.0</v>
       </c>
       <c r="G117" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H117" t="n" s="1">
         <v>20.0</v>
@@ -8783,13 +8783,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n" s="1">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C118" t="n" s="1">
-        <v>436.0</v>
+        <v>1018.0</v>
       </c>
       <c r="D118" t="n" s="1">
-        <v>61.0</v>
+        <v>65.0</v>
       </c>
       <c r="E118" t="n" s="1">
         <v>51.0</v>
@@ -8798,7 +8798,7 @@
         <v>94.0</v>
       </c>
       <c r="G118" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H118" t="n" s="1">
         <v>20.0</v>
@@ -8851,13 +8851,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C119" t="n" s="1">
-        <v>706.0</v>
+        <v>966.0</v>
       </c>
       <c r="D119" t="n" s="1">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="E119" t="n" s="1">
         <v>65.0</v>
@@ -8866,7 +8866,7 @@
         <v>94.0</v>
       </c>
       <c r="G119" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H119" t="n" s="1">
         <v>30.0</v>
@@ -8919,13 +8919,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n" s="1">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C120" t="n" s="1">
-        <v>791.0</v>
+        <v>1369.0</v>
       </c>
       <c r="D120" t="n" s="1">
-        <v>69.0</v>
+        <v>74.0</v>
       </c>
       <c r="E120" t="n" s="1">
         <v>78.0</v>
@@ -8934,7 +8934,7 @@
         <v>88.0</v>
       </c>
       <c r="G120" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H120" t="n" s="1">
         <v>20.0</v>
@@ -8987,13 +8987,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n" s="1">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C121" t="n" s="1">
-        <v>1490.0</v>
+        <v>2521.0</v>
       </c>
       <c r="D121" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E121" t="n" s="1">
         <v>65.0</v>
@@ -9002,7 +9002,7 @@
         <v>88.0</v>
       </c>
       <c r="G121" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H121" t="n" s="1">
         <v>30.0</v>
@@ -9055,13 +9055,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n" s="1">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C122" t="n" s="1">
-        <v>1092.0</v>
+        <v>1621.0</v>
       </c>
       <c r="D122" t="n" s="1">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="E122" t="n" s="1">
         <v>87.0</v>
@@ -9070,7 +9070,7 @@
         <v>94.0</v>
       </c>
       <c r="G122" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H122" t="n" s="1">
         <v>80.0</v>
@@ -9123,13 +9123,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C123" t="n" s="1">
-        <v>452.0</v>
+        <v>1115.0</v>
       </c>
       <c r="D123" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E123" t="n" s="1">
         <v>51.0</v>
@@ -9138,7 +9138,7 @@
         <v>88.0</v>
       </c>
       <c r="G123" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H123" t="n" s="1">
         <v>40.0</v>
@@ -9191,13 +9191,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C124" t="n" s="1">
-        <v>823.0</v>
+        <v>1180.0</v>
       </c>
       <c r="D124" t="n" s="1">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="E124" t="n" s="1">
         <v>87.0</v>
@@ -9206,7 +9206,7 @@
         <v>88.0</v>
       </c>
       <c r="G124" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H124" t="n" s="1">
         <v>20.0</v>
@@ -9259,13 +9259,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n" s="1">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C125" t="n" s="1">
-        <v>733.0</v>
+        <v>1081.0</v>
       </c>
       <c r="D125" t="n" s="1">
-        <v>73.0</v>
+        <v>78.0</v>
       </c>
       <c r="E125" t="n" s="1">
         <v>65.0</v>
@@ -9274,7 +9274,7 @@
         <v>94.0</v>
       </c>
       <c r="G125" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H125" t="n" s="1">
         <v>60.0</v>
@@ -9327,13 +9327,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n" s="1">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="C126" t="n" s="1">
-        <v>407.0</v>
+        <v>1261.0</v>
       </c>
       <c r="D126" t="n" s="1">
-        <v>60.0</v>
+        <v>65.0</v>
       </c>
       <c r="E126" t="n" s="1">
         <v>51.0</v>
@@ -9342,7 +9342,7 @@
         <v>77.0</v>
       </c>
       <c r="G126" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H126" t="n" s="1">
         <v>40.0</v>
@@ -9395,13 +9395,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n" s="1">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C127" t="n" s="1">
-        <v>1357.0</v>
+        <v>1806.0</v>
       </c>
       <c r="D127" t="n" s="1">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="E127" t="n" s="1">
         <v>65.0</v>
@@ -9410,7 +9410,7 @@
         <v>94.0</v>
       </c>
       <c r="G127" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H127" t="n" s="1">
         <v>20.0</v>
@@ -9463,13 +9463,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n" s="1">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C128" t="n" s="1">
-        <v>302.0</v>
+        <v>759.0</v>
       </c>
       <c r="D128" t="n" s="1">
-        <v>64.0</v>
+        <v>68.0</v>
       </c>
       <c r="E128" t="n" s="1">
         <v>58.0</v>
@@ -9478,7 +9478,7 @@
         <v>88.0</v>
       </c>
       <c r="G128" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H128" t="n" s="1">
         <v>30.0</v>
@@ -9531,13 +9531,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n" s="1">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C129" t="n" s="1">
-        <v>338.0</v>
+        <v>1143.0</v>
       </c>
       <c r="D129" t="n" s="1">
-        <v>61.0</v>
+        <v>66.0</v>
       </c>
       <c r="E129" t="n" s="1">
         <v>51.0</v>
@@ -9546,16 +9546,16 @@
         <v>88.0</v>
       </c>
       <c r="G129" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H129" t="n" s="1">
         <v>30.0</v>
       </c>
       <c r="I129" t="n" s="1">
-        <v>86.0</v>
+        <v>89.0</v>
       </c>
       <c r="J129" t="n" s="1">
-        <v>65.0</v>
+        <v>72.0</v>
       </c>
       <c r="K129" t="n" s="1">
         <v>100.0</v>
@@ -9599,13 +9599,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C130" t="n" s="1">
-        <v>702.0</v>
+        <v>1048.0</v>
       </c>
       <c r="D130" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E130" t="n" s="1">
         <v>51.0</v>
@@ -9614,7 +9614,7 @@
         <v>88.0</v>
       </c>
       <c r="G130" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H130" t="n" s="1">
         <v>50.0</v>
@@ -9667,13 +9667,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C131" t="n" s="1">
-        <v>423.0</v>
+        <v>886.0</v>
       </c>
       <c r="D131" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E131" t="n" s="1">
         <v>51.0</v>
@@ -9682,7 +9682,7 @@
         <v>88.0</v>
       </c>
       <c r="G131" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H131" t="n" s="1">
         <v>50.0</v>
@@ -9735,13 +9735,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C132" t="n" s="1">
-        <v>254.0</v>
+        <v>504.0</v>
       </c>
       <c r="D132" t="n" s="1">
-        <v>72.0</v>
+        <v>77.0</v>
       </c>
       <c r="E132" t="n" s="1">
         <v>65.0</v>
@@ -9750,7 +9750,7 @@
         <v>88.0</v>
       </c>
       <c r="G132" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H132" t="n" s="1">
         <v>60.0</v>
@@ -9803,13 +9803,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n" s="1">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="C133" t="n" s="1">
-        <v>1272.0</v>
+        <v>1233.0</v>
       </c>
       <c r="D133" t="n" s="1">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="E133" t="n" s="1">
         <v>87.0</v>
@@ -9818,7 +9818,7 @@
         <v>94.0</v>
       </c>
       <c r="G133" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H133" t="n" s="1">
         <v>80.0</v>
@@ -9871,13 +9871,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n" s="1">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="C134" t="n" s="1">
-        <v>807.0</v>
+        <v>1453.0</v>
       </c>
       <c r="D134" t="n" s="1">
-        <v>75.0</v>
+        <v>79.0</v>
       </c>
       <c r="E134" t="n" s="1">
         <v>78.0</v>
@@ -9886,7 +9886,7 @@
         <v>88.0</v>
       </c>
       <c r="G134" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H134" t="n" s="1">
         <v>50.0</v>
@@ -9939,13 +9939,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C135" t="n" s="1">
-        <v>734.0</v>
+        <v>1010.0</v>
       </c>
       <c r="D135" t="n" s="1">
-        <v>61.0</v>
+        <v>65.0</v>
       </c>
       <c r="E135" t="n" s="1">
         <v>51.0</v>
@@ -9954,7 +9954,7 @@
         <v>94.0</v>
       </c>
       <c r="G135" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H135" t="n" s="1">
         <v>20.0</v>
@@ -10007,13 +10007,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n" s="1">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C136" t="n" s="1">
-        <v>71.0</v>
+        <v>510.0</v>
       </c>
       <c r="D136" t="n" s="1">
-        <v>61.0</v>
+        <v>66.0</v>
       </c>
       <c r="E136" t="n" s="1">
         <v>51.0</v>
@@ -10022,7 +10022,7 @@
         <v>88.0</v>
       </c>
       <c r="G136" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H136" t="n" s="1">
         <v>30.0</v>
@@ -10075,13 +10075,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n" s="1">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C137" t="n" s="1">
-        <v>6106.0</v>
+        <v>6528.0</v>
       </c>
       <c r="D137" t="n" s="1">
-        <v>59.0</v>
+        <v>64.0</v>
       </c>
       <c r="E137" t="n" s="1">
         <v>51.0</v>
@@ -10090,7 +10090,7 @@
         <v>88.0</v>
       </c>
       <c r="G137" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H137" t="n" s="1">
         <v>20.0</v>
@@ -10143,13 +10143,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n" s="1">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C138" t="n" s="1">
-        <v>396.0</v>
+        <v>1370.0</v>
       </c>
       <c r="D138" t="n" s="1">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="E138" t="n" s="1">
         <v>65.0</v>
@@ -10158,7 +10158,7 @@
         <v>94.0</v>
       </c>
       <c r="G138" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H138" t="n" s="1">
         <v>30.0</v>
@@ -10211,13 +10211,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n" s="1">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C139" t="n" s="1">
-        <v>1171.0</v>
+        <v>1690.0</v>
       </c>
       <c r="D139" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E139" t="n" s="1">
         <v>65.0</v>
@@ -10226,7 +10226,7 @@
         <v>88.0</v>
       </c>
       <c r="G139" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H139" t="n" s="1">
         <v>20.0</v>
@@ -10279,13 +10279,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n" s="1">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C140" t="n" s="1">
-        <v>462.0</v>
+        <v>896.0</v>
       </c>
       <c r="D140" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E140" t="n" s="1">
         <v>51.0</v>
@@ -10294,7 +10294,7 @@
         <v>88.0</v>
       </c>
       <c r="G140" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H140" t="n" s="1">
         <v>40.0</v>
@@ -10347,13 +10347,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n" s="1">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C141" t="n" s="1">
-        <v>974.0</v>
+        <v>1197.0</v>
       </c>
       <c r="D141" t="n" s="1">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="E141" t="n" s="1">
         <v>87.0</v>
@@ -10362,7 +10362,7 @@
         <v>88.0</v>
       </c>
       <c r="G141" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H141" t="n" s="1">
         <v>80.0</v>
@@ -10415,13 +10415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C142" t="n" s="1">
-        <v>742.0</v>
+        <v>1181.0</v>
       </c>
       <c r="D142" t="n" s="1">
-        <v>77.0</v>
+        <v>82.0</v>
       </c>
       <c r="E142" t="n" s="1">
         <v>65.0</v>
@@ -10430,7 +10430,7 @@
         <v>94.0</v>
       </c>
       <c r="G142" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H142" t="n" s="1">
         <v>80.0</v>
@@ -10483,13 +10483,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n" s="1">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C143" t="n" s="1">
-        <v>72.0</v>
+        <v>353.0</v>
       </c>
       <c r="D143" t="n" s="1">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="E143" t="n" s="1">
         <v>29.0</v>
@@ -10498,7 +10498,7 @@
         <v>88.0</v>
       </c>
       <c r="G143" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H143" t="n" s="1">
         <v>20.0</v>
@@ -10551,13 +10551,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n" s="1">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C144" t="n" s="1">
-        <v>1257.0</v>
+        <v>1957.0</v>
       </c>
       <c r="D144" t="n" s="1">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="E144" t="n" s="1">
         <v>87.0</v>
@@ -10566,7 +10566,7 @@
         <v>94.0</v>
       </c>
       <c r="G144" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H144" t="n" s="1">
         <v>80.0</v>
@@ -10619,13 +10619,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C145" t="n" s="1">
-        <v>774.0</v>
+        <v>1441.0</v>
       </c>
       <c r="D145" t="n" s="1">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="E145" t="n" s="1">
         <v>65.0</v>
@@ -10634,7 +10634,7 @@
         <v>88.0</v>
       </c>
       <c r="G145" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H145" t="n" s="1">
         <v>80.0</v>
@@ -10687,13 +10687,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n" s="1">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C146" t="n" s="1">
-        <v>525.0</v>
+        <v>1033.0</v>
       </c>
       <c r="D146" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E146" t="n" s="1">
         <v>51.0</v>
@@ -10702,7 +10702,7 @@
         <v>88.0</v>
       </c>
       <c r="G146" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H146" t="n" s="1">
         <v>40.0</v>
@@ -10755,13 +10755,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n" s="1">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="C147" t="n" s="1">
-        <v>277.0</v>
+        <v>557.0</v>
       </c>
       <c r="D147" t="n" s="1">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="E147" t="n" s="1">
         <v>65.0</v>
@@ -10770,7 +10770,7 @@
         <v>88.0</v>
       </c>
       <c r="G147" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H147" t="n" s="1">
         <v>20.0</v>
@@ -10823,13 +10823,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n" s="1">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C148" t="n" s="1">
-        <v>1019.0</v>
+        <v>1482.0</v>
       </c>
       <c r="D148" t="n" s="1">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="E148" t="n" s="1">
         <v>87.0</v>
@@ -10838,7 +10838,7 @@
         <v>94.0</v>
       </c>
       <c r="G148" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H148" t="n" s="1">
         <v>80.0</v>
@@ -10891,13 +10891,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n" s="1">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C149" t="n" s="1">
-        <v>573.0</v>
+        <v>1325.0</v>
       </c>
       <c r="D149" t="n" s="1">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="E149" t="n" s="1">
         <v>51.0</v>
@@ -10906,7 +10906,7 @@
         <v>88.0</v>
       </c>
       <c r="G149" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H149" t="n" s="1">
         <v>40.0</v>
@@ -10959,13 +10959,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n" s="1">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C150" t="n" s="1">
-        <v>911.0</v>
+        <v>1433.0</v>
       </c>
       <c r="D150" t="n" s="1">
-        <v>80.0</v>
+        <v>84.0</v>
       </c>
       <c r="E150" t="n" s="1">
         <v>73.0</v>
@@ -10974,7 +10974,7 @@
         <v>94.0</v>
       </c>
       <c r="G150" t="n" s="1">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="H150" t="n" s="1">
         <v>80.0</v>
@@ -11199,7 +11199,7 @@
     <col min="11" max="11" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="11.08984375" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="6.14453125" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="7.3984375" customWidth="true" bestFit="true"/>
     <col min="15" max="15" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="11.08984375" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="11.08984375" customWidth="true" bestFit="true"/>
@@ -11527,10 +11527,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n" s="4">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C2" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D2" t="n" s="4">
         <v>65.0</v>
@@ -11563,7 +11563,7 @@
         <v>3.0</v>
       </c>
       <c r="N2" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O2" t="n" s="4">
         <v>0.0</v>
@@ -11572,7 +11572,7 @@
         <v>11.0</v>
       </c>
       <c r="Q2" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R2" t="n" s="4">
         <v>20.0</v>
@@ -11778,10 +11778,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n" s="4">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C3" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D3" t="n" s="4">
         <v>51.0</v>
@@ -11814,7 +11814,7 @@
         <v>3.0</v>
       </c>
       <c r="N3" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O3" t="n" s="4">
         <v>0.0</v>
@@ -11823,7 +11823,7 @@
         <v>11.0</v>
       </c>
       <c r="Q3" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R3" t="n" s="4">
         <v>40.0</v>
@@ -12029,10 +12029,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n" s="4">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="C4" t="n" s="4">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="D4" t="n" s="4">
         <v>87.0</v>
@@ -12065,7 +12065,7 @@
         <v>3.0</v>
       </c>
       <c r="N4" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O4" t="n" s="4">
         <v>0.0</v>
@@ -12074,7 +12074,7 @@
         <v>11.0</v>
       </c>
       <c r="Q4" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R4" t="n" s="4">
         <v>80.0</v>
@@ -12280,10 +12280,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n" s="4">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C5" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D5" t="n" s="4">
         <v>51.0</v>
@@ -12316,7 +12316,7 @@
         <v>3.0</v>
       </c>
       <c r="N5" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O5" t="n" s="4">
         <v>0.0</v>
@@ -12325,7 +12325,7 @@
         <v>11.0</v>
       </c>
       <c r="Q5" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R5" t="n" s="4">
         <v>50.0</v>
@@ -12531,10 +12531,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n" s="4">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C6" t="n" s="4">
-        <v>81.0</v>
+        <v>85.0</v>
       </c>
       <c r="D6" t="n" s="4">
         <v>75.0</v>
@@ -12567,7 +12567,7 @@
         <v>3.0</v>
       </c>
       <c r="N6" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O6" t="n" s="4">
         <v>0.0</v>
@@ -12576,7 +12576,7 @@
         <v>11.0</v>
       </c>
       <c r="Q6" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R6" t="n" s="4">
         <v>80.0</v>
@@ -12782,10 +12782,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n" s="4">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="C7" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D7" t="n" s="4">
         <v>51.0</v>
@@ -12818,7 +12818,7 @@
         <v>3.0</v>
       </c>
       <c r="N7" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O7" t="n" s="4">
         <v>0.0</v>
@@ -12827,7 +12827,7 @@
         <v>11.0</v>
       </c>
       <c r="Q7" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R7" t="n" s="4">
         <v>50.0</v>
@@ -13033,10 +13033,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n" s="4">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="C8" t="n" s="4">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="D8" t="n" s="4">
         <v>87.0</v>
@@ -13069,7 +13069,7 @@
         <v>3.0</v>
       </c>
       <c r="N8" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O8" t="n" s="4">
         <v>0.0</v>
@@ -13078,7 +13078,7 @@
         <v>11.0</v>
       </c>
       <c r="Q8" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R8" t="n" s="4">
         <v>80.0</v>
@@ -13284,10 +13284,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n" s="4">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="C9" t="n" s="4">
-        <v>74.0</v>
+        <v>79.0</v>
       </c>
       <c r="D9" t="n" s="4">
         <v>78.0</v>
@@ -13320,7 +13320,7 @@
         <v>3.0</v>
       </c>
       <c r="N9" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O9" t="n" s="4">
         <v>0.0</v>
@@ -13329,7 +13329,7 @@
         <v>11.0</v>
       </c>
       <c r="Q9" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R9" t="n" s="4">
         <v>40.0</v>
@@ -13535,10 +13535,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n" s="4">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C10" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D10" t="n" s="4">
         <v>51.0</v>
@@ -13571,7 +13571,7 @@
         <v>3.0</v>
       </c>
       <c r="N10" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O10" t="n" s="4">
         <v>0.0</v>
@@ -13580,7 +13580,7 @@
         <v>11.0</v>
       </c>
       <c r="Q10" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R10" t="n" s="4">
         <v>50.0</v>
@@ -13786,10 +13786,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n" s="4">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C11" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D11" t="n" s="4">
         <v>65.0</v>
@@ -13822,7 +13822,7 @@
         <v>3.0</v>
       </c>
       <c r="N11" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O11" t="n" s="4">
         <v>0.0</v>
@@ -13831,7 +13831,7 @@
         <v>11.0</v>
       </c>
       <c r="Q11" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R11" t="n" s="4">
         <v>20.0</v>
@@ -14037,10 +14037,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C12" t="n" s="4">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="D12" t="n" s="4">
         <v>75.0</v>
@@ -14073,7 +14073,7 @@
         <v>3.0</v>
       </c>
       <c r="N12" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O12" t="n" s="4">
         <v>0.0</v>
@@ -14082,7 +14082,7 @@
         <v>11.0</v>
       </c>
       <c r="Q12" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R12" t="n" s="4">
         <v>60.0</v>
@@ -14288,10 +14288,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n" s="4">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="C13" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D13" t="n" s="4">
         <v>51.0</v>
@@ -14324,7 +14324,7 @@
         <v>3.0</v>
       </c>
       <c r="N13" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O13" t="n" s="4">
         <v>0.0</v>
@@ -14333,7 +14333,7 @@
         <v>11.0</v>
       </c>
       <c r="Q13" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R13" t="n" s="4">
         <v>60.0</v>
@@ -14539,10 +14539,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n" s="4">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="C14" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D14" t="n" s="4">
         <v>65.0</v>
@@ -14575,7 +14575,7 @@
         <v>3.0</v>
       </c>
       <c r="N14" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O14" t="n" s="4">
         <v>0.0</v>
@@ -14584,7 +14584,7 @@
         <v>11.0</v>
       </c>
       <c r="Q14" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R14" t="n" s="4">
         <v>20.0</v>
@@ -14790,10 +14790,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n" s="4">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C15" t="n" s="4">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="D15" t="n" s="4">
         <v>65.0</v>
@@ -14826,7 +14826,7 @@
         <v>3.0</v>
       </c>
       <c r="N15" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O15" t="n" s="4">
         <v>0.0</v>
@@ -14835,7 +14835,7 @@
         <v>11.0</v>
       </c>
       <c r="Q15" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R15" t="n" s="4">
         <v>50.0</v>
@@ -15041,10 +15041,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n" s="4">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C16" t="n" s="4">
-        <v>79.0</v>
+        <v>84.0</v>
       </c>
       <c r="D16" t="n" s="4">
         <v>75.0</v>
@@ -15077,7 +15077,7 @@
         <v>3.0</v>
       </c>
       <c r="N16" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O16" t="n" s="4">
         <v>0.0</v>
@@ -15086,7 +15086,7 @@
         <v>11.0</v>
       </c>
       <c r="Q16" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R16" t="n" s="4">
         <v>80.0</v>
@@ -15292,10 +15292,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n" s="4">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C17" t="n" s="4">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="D17" t="n" s="4">
         <v>87.0</v>
@@ -15328,7 +15328,7 @@
         <v>3.0</v>
       </c>
       <c r="N17" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O17" t="n" s="4">
         <v>0.0</v>
@@ -15337,7 +15337,7 @@
         <v>11.0</v>
       </c>
       <c r="Q17" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R17" t="n" s="4">
         <v>80.0</v>
@@ -15543,10 +15543,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n" s="4">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C18" t="n" s="4">
-        <v>73.0</v>
+        <v>78.0</v>
       </c>
       <c r="D18" t="n" s="4">
         <v>65.0</v>
@@ -15579,7 +15579,7 @@
         <v>3.0</v>
       </c>
       <c r="N18" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O18" t="n" s="4">
         <v>0.0</v>
@@ -15588,7 +15588,7 @@
         <v>11.0</v>
       </c>
       <c r="Q18" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R18" t="n" s="4">
         <v>60.0</v>
@@ -15794,10 +15794,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C19" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D19" t="n" s="4">
         <v>65.0</v>
@@ -15830,7 +15830,7 @@
         <v>3.0</v>
       </c>
       <c r="N19" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O19" t="n" s="4">
         <v>0.0</v>
@@ -15839,7 +15839,7 @@
         <v>11.0</v>
       </c>
       <c r="Q19" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R19" t="n" s="4">
         <v>20.0</v>
@@ -16045,10 +16045,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n" s="4">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="C20" t="n" s="4">
-        <v>53.0</v>
+        <v>57.0</v>
       </c>
       <c r="D20" t="n" s="4">
         <v>29.0</v>
@@ -16081,7 +16081,7 @@
         <v>3.0</v>
       </c>
       <c r="N20" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O20" t="n" s="4">
         <v>0.0</v>
@@ -16090,7 +16090,7 @@
         <v>11.0</v>
       </c>
       <c r="Q20" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R20" t="n" s="4">
         <v>30.0</v>
@@ -16296,10 +16296,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n" s="4">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="C21" t="n" s="4">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="D21" t="n" s="4">
         <v>58.0</v>
@@ -16332,7 +16332,7 @@
         <v>3.0</v>
       </c>
       <c r="N21" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O21" t="n" s="4">
         <v>0.0</v>
@@ -16341,7 +16341,7 @@
         <v>11.0</v>
       </c>
       <c r="Q21" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R21" t="n" s="4">
         <v>20.0</v>
@@ -16547,10 +16547,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n" s="4">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C22" t="n" s="4">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="D22" t="n" s="4">
         <v>65.0</v>
@@ -16583,7 +16583,7 @@
         <v>3.0</v>
       </c>
       <c r="N22" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O22" t="n" s="4">
         <v>0.0</v>
@@ -16592,7 +16592,7 @@
         <v>11.0</v>
       </c>
       <c r="Q22" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R22" t="n" s="4">
         <v>50.0</v>
@@ -16798,10 +16798,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n" s="4">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C23" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D23" t="n" s="4">
         <v>51.0</v>
@@ -16834,7 +16834,7 @@
         <v>3.0</v>
       </c>
       <c r="N23" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O23" t="n" s="4">
         <v>0.0</v>
@@ -16843,7 +16843,7 @@
         <v>11.0</v>
       </c>
       <c r="Q23" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R23" t="n" s="4">
         <v>40.0</v>
@@ -17049,10 +17049,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n" s="4">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C24" t="n" s="4">
-        <v>72.0</v>
+        <v>77.0</v>
       </c>
       <c r="D24" t="n" s="4">
         <v>78.0</v>
@@ -17085,7 +17085,7 @@
         <v>3.0</v>
       </c>
       <c r="N24" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O24" t="n" s="4">
         <v>0.0</v>
@@ -17094,7 +17094,7 @@
         <v>11.0</v>
       </c>
       <c r="Q24" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R24" t="n" s="4">
         <v>30.0</v>
@@ -17300,10 +17300,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n" s="4">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="C25" t="n" s="4">
-        <v>64.0</v>
+        <v>68.0</v>
       </c>
       <c r="D25" t="n" s="4">
         <v>58.0</v>
@@ -17336,7 +17336,7 @@
         <v>3.0</v>
       </c>
       <c r="N25" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O25" t="n" s="4">
         <v>0.0</v>
@@ -17345,7 +17345,7 @@
         <v>11.0</v>
       </c>
       <c r="Q25" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R25" t="n" s="4">
         <v>30.0</v>
@@ -17551,10 +17551,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n" s="4">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C26" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D26" t="n" s="4">
         <v>51.0</v>
@@ -17587,7 +17587,7 @@
         <v>3.0</v>
       </c>
       <c r="N26" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O26" t="n" s="4">
         <v>0.0</v>
@@ -17596,7 +17596,7 @@
         <v>11.0</v>
       </c>
       <c r="Q26" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R26" t="n" s="4">
         <v>40.0</v>
@@ -17802,10 +17802,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n" s="4">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C27" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D27" t="n" s="4">
         <v>65.0</v>
@@ -17838,7 +17838,7 @@
         <v>3.0</v>
       </c>
       <c r="N27" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O27" t="n" s="4">
         <v>0.0</v>
@@ -17847,7 +17847,7 @@
         <v>11.0</v>
       </c>
       <c r="Q27" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R27" t="n" s="4">
         <v>20.0</v>
@@ -18053,10 +18053,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n" s="4">
-        <v>64.0</v>
+        <v>66.0</v>
       </c>
       <c r="C28" t="n" s="4">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="D28" t="n" s="4">
         <v>87.0</v>
@@ -18089,7 +18089,7 @@
         <v>3.0</v>
       </c>
       <c r="N28" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O28" t="n" s="4">
         <v>0.0</v>
@@ -18098,7 +18098,7 @@
         <v>11.0</v>
       </c>
       <c r="Q28" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R28" t="n" s="4">
         <v>80.0</v>
@@ -18304,10 +18304,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n" s="4">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="C29" t="n" s="4">
-        <v>70.0</v>
+        <v>75.0</v>
       </c>
       <c r="D29" t="n" s="4">
         <v>65.0</v>
@@ -18340,7 +18340,7 @@
         <v>3.0</v>
       </c>
       <c r="N29" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O29" t="n" s="4">
         <v>0.0</v>
@@ -18349,7 +18349,7 @@
         <v>11.0</v>
       </c>
       <c r="Q29" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R29" t="n" s="4">
         <v>50.0</v>
@@ -18555,10 +18555,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n" s="4">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="C30" t="n" s="4">
-        <v>77.0</v>
+        <v>82.0</v>
       </c>
       <c r="D30" t="n" s="4">
         <v>65.0</v>
@@ -18591,7 +18591,7 @@
         <v>3.0</v>
       </c>
       <c r="N30" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O30" t="n" s="4">
         <v>0.0</v>
@@ -18600,7 +18600,7 @@
         <v>11.0</v>
       </c>
       <c r="Q30" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R30" t="n" s="4">
         <v>80.0</v>
@@ -18806,10 +18806,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n" s="4">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C31" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D31" t="n" s="4">
         <v>51.0</v>
@@ -18842,7 +18842,7 @@
         <v>3.0</v>
       </c>
       <c r="N31" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O31" t="n" s="4">
         <v>0.0</v>
@@ -18851,7 +18851,7 @@
         <v>11.0</v>
       </c>
       <c r="Q31" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R31" t="n" s="4">
         <v>40.0</v>
@@ -19057,10 +19057,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n" s="4">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="C32" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D32" t="n" s="4">
         <v>65.0</v>
@@ -19093,7 +19093,7 @@
         <v>3.0</v>
       </c>
       <c r="N32" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O32" t="n" s="4">
         <v>0.0</v>
@@ -19102,7 +19102,7 @@
         <v>11.0</v>
       </c>
       <c r="Q32" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R32" t="n" s="4">
         <v>20.0</v>
@@ -19308,10 +19308,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n" s="4">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C33" t="n" s="4">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="D33" t="n" s="4">
         <v>65.0</v>
@@ -19344,7 +19344,7 @@
         <v>3.0</v>
       </c>
       <c r="N33" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O33" t="n" s="4">
         <v>0.0</v>
@@ -19353,7 +19353,7 @@
         <v>11.0</v>
       </c>
       <c r="Q33" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R33" t="n" s="4">
         <v>30.0</v>
@@ -19559,10 +19559,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n" s="4">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C34" t="n" s="4">
-        <v>83.0</v>
+        <v>88.0</v>
       </c>
       <c r="D34" t="n" s="4">
         <v>87.0</v>
@@ -19595,7 +19595,7 @@
         <v>3.0</v>
       </c>
       <c r="N34" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O34" t="n" s="4">
         <v>0.0</v>
@@ -19604,7 +19604,7 @@
         <v>11.0</v>
       </c>
       <c r="Q34" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R34" t="n" s="4">
         <v>70.0</v>
@@ -19810,10 +19810,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n" s="4">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C35" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D35" t="n" s="4">
         <v>65.0</v>
@@ -19846,7 +19846,7 @@
         <v>3.0</v>
       </c>
       <c r="N35" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O35" t="n" s="4">
         <v>0.0</v>
@@ -19855,7 +19855,7 @@
         <v>11.0</v>
       </c>
       <c r="Q35" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R35" t="n" s="4">
         <v>20.0</v>
@@ -20061,10 +20061,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n" s="4">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C36" t="n" s="4">
-        <v>74.0</v>
+        <v>78.0</v>
       </c>
       <c r="D36" t="n" s="4">
         <v>65.0</v>
@@ -20097,7 +20097,7 @@
         <v>3.0</v>
       </c>
       <c r="N36" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O36" t="n" s="4">
         <v>0.0</v>
@@ -20106,7 +20106,7 @@
         <v>11.0</v>
       </c>
       <c r="Q36" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R36" t="n" s="4">
         <v>70.0</v>
@@ -20312,10 +20312,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n" s="4">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="C37" t="n" s="4">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="D37" t="n" s="4">
         <v>78.0</v>
@@ -20348,7 +20348,7 @@
         <v>3.0</v>
       </c>
       <c r="N37" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O37" t="n" s="4">
         <v>0.0</v>
@@ -20357,7 +20357,7 @@
         <v>11.0</v>
       </c>
       <c r="Q37" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R37" t="n" s="4">
         <v>30.0</v>
@@ -20563,10 +20563,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n" s="4">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C38" t="n" s="4">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="D38" t="n" s="4">
         <v>87.0</v>
@@ -20599,7 +20599,7 @@
         <v>3.0</v>
       </c>
       <c r="N38" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O38" t="n" s="4">
         <v>0.0</v>
@@ -20608,7 +20608,7 @@
         <v>11.0</v>
       </c>
       <c r="Q38" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R38" t="n" s="4">
         <v>80.0</v>
@@ -20814,10 +20814,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n" s="4">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C39" t="n" s="4">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="D39" t="n" s="4">
         <v>78.0</v>
@@ -20850,7 +20850,7 @@
         <v>3.0</v>
       </c>
       <c r="N39" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O39" t="n" s="4">
         <v>0.0</v>
@@ -20859,7 +20859,7 @@
         <v>11.0</v>
       </c>
       <c r="Q39" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R39" t="n" s="4">
         <v>40.0</v>
@@ -21065,10 +21065,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n" s="4">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C40" t="n" s="4">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="D40" t="n" s="4">
         <v>65.0</v>
@@ -21101,7 +21101,7 @@
         <v>3.0</v>
       </c>
       <c r="N40" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O40" t="n" s="4">
         <v>0.0</v>
@@ -21110,7 +21110,7 @@
         <v>11.0</v>
       </c>
       <c r="Q40" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R40" t="n" s="4">
         <v>80.0</v>
@@ -21322,7 +21322,7 @@
         <v>85.0</v>
       </c>
       <c r="D41" t="n" s="4">
-        <v>87.0</v>
+        <v>75.0</v>
       </c>
       <c r="E41" t="n" s="4">
         <v>9.0</v>
@@ -21334,7 +21334,7 @@
         <v>12.0</v>
       </c>
       <c r="H41" t="n" s="4">
-        <v>9.0</v>
+        <v>4.0</v>
       </c>
       <c r="I41" t="n" s="4">
         <v>94.0</v>
@@ -21352,7 +21352,7 @@
         <v>3.0</v>
       </c>
       <c r="N41" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O41" t="n" s="4">
         <v>0.0</v>
@@ -21361,7 +21361,7 @@
         <v>11.0</v>
       </c>
       <c r="Q41" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R41" t="n" s="4">
         <v>80.0</v>
@@ -21567,10 +21567,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n" s="4">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C42" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D42" t="n" s="4">
         <v>51.0</v>
@@ -21603,7 +21603,7 @@
         <v>3.0</v>
       </c>
       <c r="N42" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O42" t="n" s="4">
         <v>0.0</v>
@@ -21612,7 +21612,7 @@
         <v>11.0</v>
       </c>
       <c r="Q42" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R42" t="n" s="4">
         <v>40.0</v>
@@ -21818,10 +21818,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n" s="4">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C43" t="n" s="4">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="D43" t="n" s="4">
         <v>29.0</v>
@@ -21854,7 +21854,7 @@
         <v>3.0</v>
       </c>
       <c r="N43" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O43" t="n" s="4">
         <v>0.0</v>
@@ -21863,7 +21863,7 @@
         <v>11.0</v>
       </c>
       <c r="Q43" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R43" t="n" s="4">
         <v>20.0</v>
@@ -22069,10 +22069,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n" s="4">
-        <v>43.0</v>
+        <v>44.0</v>
       </c>
       <c r="C44" t="n" s="4">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="D44" t="n" s="4">
         <v>29.0</v>
@@ -22105,7 +22105,7 @@
         <v>3.0</v>
       </c>
       <c r="N44" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O44" t="n" s="4">
         <v>0.0</v>
@@ -22114,7 +22114,7 @@
         <v>11.0</v>
       </c>
       <c r="Q44" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R44" t="n" s="4">
         <v>20.0</v>
@@ -22320,10 +22320,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n" s="4">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C45" t="n" s="4">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="D45" t="n" s="4">
         <v>65.0</v>
@@ -22356,7 +22356,7 @@
         <v>3.0</v>
       </c>
       <c r="N45" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O45" t="n" s="4">
         <v>0.0</v>
@@ -22365,7 +22365,7 @@
         <v>11.0</v>
       </c>
       <c r="Q45" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R45" t="n" s="4">
         <v>40.0</v>
@@ -22571,10 +22571,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n" s="4">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C46" t="n" s="4">
-        <v>67.0</v>
+        <v>72.0</v>
       </c>
       <c r="D46" t="n" s="4">
         <v>58.0</v>
@@ -22607,7 +22607,7 @@
         <v>3.0</v>
       </c>
       <c r="N46" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O46" t="n" s="4">
         <v>0.0</v>
@@ -22616,7 +22616,7 @@
         <v>11.0</v>
       </c>
       <c r="Q46" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R46" t="n" s="4">
         <v>40.0</v>
@@ -22822,10 +22822,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n" s="4">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C47" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D47" t="n" s="4">
         <v>51.0</v>
@@ -22858,7 +22858,7 @@
         <v>3.0</v>
       </c>
       <c r="N47" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O47" t="n" s="4">
         <v>0.0</v>
@@ -22867,7 +22867,7 @@
         <v>11.0</v>
       </c>
       <c r="Q47" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R47" t="n" s="4">
         <v>40.0</v>
@@ -23073,10 +23073,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n" s="4">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C48" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D48" t="n" s="4">
         <v>51.0</v>
@@ -23109,7 +23109,7 @@
         <v>3.0</v>
       </c>
       <c r="N48" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O48" t="n" s="4">
         <v>0.0</v>
@@ -23118,7 +23118,7 @@
         <v>11.0</v>
       </c>
       <c r="Q48" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R48" t="n" s="4">
         <v>40.0</v>
@@ -23324,10 +23324,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n" s="4">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C49" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D49" t="n" s="4">
         <v>65.0</v>
@@ -23360,7 +23360,7 @@
         <v>3.0</v>
       </c>
       <c r="N49" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O49" t="n" s="4">
         <v>0.0</v>
@@ -23369,7 +23369,7 @@
         <v>11.0</v>
       </c>
       <c r="Q49" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R49" t="n" s="4">
         <v>20.0</v>
@@ -23575,10 +23575,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n" s="4">
-        <v>49.0</v>
+        <v>50.0</v>
       </c>
       <c r="C50" t="n" s="4">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="D50" t="n" s="4">
         <v>29.0</v>
@@ -23611,7 +23611,7 @@
         <v>3.0</v>
       </c>
       <c r="N50" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O50" t="n" s="4">
         <v>0.0</v>
@@ -23620,7 +23620,7 @@
         <v>11.0</v>
       </c>
       <c r="Q50" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R50" t="n" s="4">
         <v>60.0</v>
@@ -23826,10 +23826,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n" s="4">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C51" t="n" s="4">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="D51" t="n" s="4">
         <v>58.0</v>
@@ -23862,7 +23862,7 @@
         <v>3.0</v>
       </c>
       <c r="N51" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O51" t="n" s="4">
         <v>0.0</v>
@@ -23871,7 +23871,7 @@
         <v>11.0</v>
       </c>
       <c r="Q51" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R51" t="n" s="4">
         <v>20.0</v>
@@ -24077,10 +24077,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n" s="4">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C52" t="n" s="4">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="D52" t="n" s="4">
         <v>65.0</v>
@@ -24113,7 +24113,7 @@
         <v>3.0</v>
       </c>
       <c r="N52" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O52" t="n" s="4">
         <v>0.0</v>
@@ -24122,7 +24122,7 @@
         <v>11.0</v>
       </c>
       <c r="Q52" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R52" t="n" s="4">
         <v>40.0</v>
@@ -24328,10 +24328,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n" s="4">
-        <v>29.0</v>
+        <v>30.0</v>
       </c>
       <c r="C53" t="n" s="4">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="D53" t="n" s="4">
         <v>29.0</v>
@@ -24364,7 +24364,7 @@
         <v>3.0</v>
       </c>
       <c r="N53" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O53" t="n" s="4">
         <v>0.0</v>
@@ -24373,7 +24373,7 @@
         <v>11.0</v>
       </c>
       <c r="Q53" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R53" t="n" s="4">
         <v>20.0</v>
@@ -24442,7 +24442,7 @@
         <v>0.0</v>
       </c>
       <c r="AN53" t="n" s="4">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="AO53" t="n" s="4">
         <v>0.0</v>
@@ -24487,7 +24487,7 @@
         <v>0.0</v>
       </c>
       <c r="BC53" t="n" s="4">
-        <v>21.0</v>
+        <v>18.0</v>
       </c>
       <c r="BD53" t="n" s="4">
         <v>0.0</v>
@@ -24496,7 +24496,7 @@
         <v>0.0</v>
       </c>
       <c r="BF53" t="n" s="4">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="BG53" t="n" s="4">
         <v>0.0</v>
@@ -24579,10 +24579,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C54" t="n" s="4">
-        <v>73.0</v>
+        <v>78.0</v>
       </c>
       <c r="D54" t="n" s="4">
         <v>65.0</v>
@@ -24615,7 +24615,7 @@
         <v>3.0</v>
       </c>
       <c r="N54" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O54" t="n" s="4">
         <v>0.0</v>
@@ -24624,7 +24624,7 @@
         <v>11.0</v>
       </c>
       <c r="Q54" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R54" t="n" s="4">
         <v>60.0</v>
@@ -24750,16 +24750,16 @@
         <v>7.0</v>
       </c>
       <c r="BG54" t="n" s="4">
-        <v>28.0</v>
+        <v>29.0</v>
       </c>
       <c r="BH54" t="n" s="4">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="BI54" t="n" s="4">
         <v>4.0</v>
       </c>
       <c r="BJ54" t="n" s="4">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="BK54" t="n" s="4">
         <v>0.0</v>
@@ -24830,10 +24830,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n" s="4">
-        <v>66.0</v>
+        <v>67.0</v>
       </c>
       <c r="C55" t="n" s="4">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="D55" t="n" s="4">
         <v>78.0</v>
@@ -24866,7 +24866,7 @@
         <v>3.0</v>
       </c>
       <c r="N55" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O55" t="n" s="4">
         <v>0.0</v>
@@ -24875,7 +24875,7 @@
         <v>11.0</v>
       </c>
       <c r="Q55" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R55" t="n" s="4">
         <v>40.0</v>
@@ -25081,10 +25081,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n" s="4">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C56" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D56" t="n" s="4">
         <v>65.0</v>
@@ -25117,7 +25117,7 @@
         <v>3.0</v>
       </c>
       <c r="N56" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O56" t="n" s="4">
         <v>0.0</v>
@@ -25126,7 +25126,7 @@
         <v>11.0</v>
       </c>
       <c r="Q56" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R56" t="n" s="4">
         <v>30.0</v>
@@ -25332,10 +25332,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C57" t="n" s="4">
-        <v>72.0</v>
+        <v>77.0</v>
       </c>
       <c r="D57" t="n" s="4">
         <v>65.0</v>
@@ -25368,7 +25368,7 @@
         <v>3.0</v>
       </c>
       <c r="N57" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O57" t="n" s="4">
         <v>0.0</v>
@@ -25377,7 +25377,7 @@
         <v>11.0</v>
       </c>
       <c r="Q57" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R57" t="n" s="4">
         <v>60.0</v>
@@ -25583,10 +25583,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n" s="4">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C58" t="n" s="4">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="D58" t="n" s="4">
         <v>65.0</v>
@@ -25619,7 +25619,7 @@
         <v>3.0</v>
       </c>
       <c r="N58" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O58" t="n" s="4">
         <v>0.0</v>
@@ -25628,7 +25628,7 @@
         <v>11.0</v>
       </c>
       <c r="Q58" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R58" t="n" s="4">
         <v>30.0</v>
@@ -25834,10 +25834,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n" s="4">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C59" t="n" s="4">
-        <v>56.0</v>
+        <v>61.0</v>
       </c>
       <c r="D59" t="n" s="4">
         <v>29.0</v>
@@ -25870,7 +25870,7 @@
         <v>3.0</v>
       </c>
       <c r="N59" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O59" t="n" s="4">
         <v>0.0</v>
@@ -25879,7 +25879,7 @@
         <v>11.0</v>
       </c>
       <c r="Q59" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R59" t="n" s="4">
         <v>50.0</v>
@@ -26085,10 +26085,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n" s="4">
-        <v>54.0</v>
+        <v>56.0</v>
       </c>
       <c r="C60" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D60" t="n" s="4">
         <v>65.0</v>
@@ -26121,7 +26121,7 @@
         <v>3.0</v>
       </c>
       <c r="N60" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O60" t="n" s="4">
         <v>0.0</v>
@@ -26130,7 +26130,7 @@
         <v>11.0</v>
       </c>
       <c r="Q60" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R60" t="n" s="4">
         <v>20.0</v>
@@ -26336,10 +26336,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n" s="4">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C61" t="n" s="4">
-        <v>60.0</v>
+        <v>64.0</v>
       </c>
       <c r="D61" t="n" s="4">
         <v>43.0</v>
@@ -26372,7 +26372,7 @@
         <v>3.0</v>
       </c>
       <c r="N61" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O61" t="n" s="4">
         <v>0.0</v>
@@ -26381,7 +26381,7 @@
         <v>11.0</v>
       </c>
       <c r="Q61" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R61" t="n" s="4">
         <v>30.0</v>
@@ -26587,10 +26587,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n" s="4">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C62" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D62" t="n" s="4">
         <v>65.0</v>
@@ -26623,7 +26623,7 @@
         <v>3.0</v>
       </c>
       <c r="N62" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O62" t="n" s="4">
         <v>0.0</v>
@@ -26632,7 +26632,7 @@
         <v>11.0</v>
       </c>
       <c r="Q62" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R62" t="n" s="4">
         <v>20.0</v>
@@ -26838,10 +26838,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n" s="4">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C63" t="n" s="4">
-        <v>62.0</v>
+        <v>67.0</v>
       </c>
       <c r="D63" t="n" s="4">
         <v>51.0</v>
@@ -26874,7 +26874,7 @@
         <v>3.0</v>
       </c>
       <c r="N63" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O63" t="n" s="4">
         <v>0.0</v>
@@ -26883,7 +26883,7 @@
         <v>11.0</v>
       </c>
       <c r="Q63" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R63" t="n" s="4">
         <v>30.0</v>
@@ -27089,10 +27089,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n" s="4">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C64" t="n" s="4">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="D64" t="n" s="4">
         <v>43.0</v>
@@ -27125,7 +27125,7 @@
         <v>3.0</v>
       </c>
       <c r="N64" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O64" t="n" s="4">
         <v>0.0</v>
@@ -27134,7 +27134,7 @@
         <v>11.0</v>
       </c>
       <c r="Q64" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R64" t="n" s="4">
         <v>30.0</v>
@@ -27340,10 +27340,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n" s="4">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C65" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D65" t="n" s="4">
         <v>51.0</v>
@@ -27376,7 +27376,7 @@
         <v>3.0</v>
       </c>
       <c r="N65" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O65" t="n" s="4">
         <v>0.0</v>
@@ -27385,7 +27385,7 @@
         <v>11.0</v>
       </c>
       <c r="Q65" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R65" t="n" s="4">
         <v>40.0</v>
@@ -27591,10 +27591,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n" s="4">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C66" t="n" s="4">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="D66" t="n" s="4">
         <v>78.0</v>
@@ -27627,7 +27627,7 @@
         <v>3.0</v>
       </c>
       <c r="N66" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O66" t="n" s="4">
         <v>0.0</v>
@@ -27636,7 +27636,7 @@
         <v>11.0</v>
       </c>
       <c r="Q66" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R66" t="n" s="4">
         <v>30.0</v>
@@ -27842,10 +27842,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n" s="4">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="C67" t="n" s="4">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="D67" t="n" s="4">
         <v>65.0</v>
@@ -27878,7 +27878,7 @@
         <v>3.0</v>
       </c>
       <c r="N67" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O67" t="n" s="4">
         <v>0.0</v>
@@ -27887,7 +27887,7 @@
         <v>11.0</v>
       </c>
       <c r="Q67" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R67" t="n" s="4">
         <v>30.0</v>
@@ -28093,10 +28093,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n" s="4">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C68" t="n" s="4">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="D68" t="n" s="4">
         <v>29.0</v>
@@ -28129,7 +28129,7 @@
         <v>3.0</v>
       </c>
       <c r="N68" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O68" t="n" s="4">
         <v>0.0</v>
@@ -28138,7 +28138,7 @@
         <v>11.0</v>
       </c>
       <c r="Q68" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R68" t="n" s="4">
         <v>20.0</v>
@@ -28344,10 +28344,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n" s="4">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="C69" t="n" s="4">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="D69" t="n" s="4">
         <v>87.0</v>
@@ -28380,7 +28380,7 @@
         <v>3.0</v>
       </c>
       <c r="N69" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O69" t="n" s="4">
         <v>0.0</v>
@@ -28389,7 +28389,7 @@
         <v>11.0</v>
       </c>
       <c r="Q69" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R69" t="n" s="4">
         <v>80.0</v>
@@ -28595,10 +28595,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n" s="4">
-        <v>50.0</v>
+        <v>51.0</v>
       </c>
       <c r="C70" t="n" s="4">
-        <v>59.0</v>
+        <v>64.0</v>
       </c>
       <c r="D70" t="n" s="4">
         <v>51.0</v>
@@ -28631,7 +28631,7 @@
         <v>3.0</v>
       </c>
       <c r="N70" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O70" t="n" s="4">
         <v>0.0</v>
@@ -28640,7 +28640,7 @@
         <v>11.0</v>
       </c>
       <c r="Q70" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R70" t="n" s="4">
         <v>20.0</v>
@@ -28846,10 +28846,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n" s="4">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C71" t="n" s="4">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="D71" t="n" s="4">
         <v>29.0</v>
@@ -28882,7 +28882,7 @@
         <v>3.0</v>
       </c>
       <c r="N71" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O71" t="n" s="4">
         <v>0.0</v>
@@ -28891,7 +28891,7 @@
         <v>11.0</v>
       </c>
       <c r="Q71" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R71" t="n" s="4">
         <v>20.0</v>
@@ -29097,10 +29097,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C72" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D72" t="n" s="4">
         <v>56.0</v>
@@ -29133,7 +29133,7 @@
         <v>3.0</v>
       </c>
       <c r="N72" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O72" t="n" s="4">
         <v>0.0</v>
@@ -29142,7 +29142,7 @@
         <v>11.0</v>
       </c>
       <c r="Q72" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R72" t="n" s="4">
         <v>30.0</v>
@@ -29348,10 +29348,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n" s="4">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C73" t="n" s="4">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="D73" t="n" s="4">
         <v>78.0</v>
@@ -29384,7 +29384,7 @@
         <v>3.0</v>
       </c>
       <c r="N73" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O73" t="n" s="4">
         <v>0.0</v>
@@ -29393,7 +29393,7 @@
         <v>11.0</v>
       </c>
       <c r="Q73" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R73" t="n" s="4">
         <v>30.0</v>
@@ -29599,10 +29599,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n" s="4">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="C74" t="n" s="4">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="D74" t="n" s="4">
         <v>87.0</v>
@@ -29635,7 +29635,7 @@
         <v>3.0</v>
       </c>
       <c r="N74" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O74" t="n" s="4">
         <v>0.0</v>
@@ -29644,7 +29644,7 @@
         <v>11.0</v>
       </c>
       <c r="Q74" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R74" t="n" s="4">
         <v>80.0</v>
@@ -29850,10 +29850,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n" s="4">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C75" t="n" s="4">
-        <v>55.0</v>
+        <v>59.0</v>
       </c>
       <c r="D75" t="n" s="4">
         <v>29.0</v>
@@ -29886,7 +29886,7 @@
         <v>3.0</v>
       </c>
       <c r="N75" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O75" t="n" s="4">
         <v>0.0</v>
@@ -29895,7 +29895,7 @@
         <v>11.0</v>
       </c>
       <c r="Q75" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R75" t="n" s="4">
         <v>40.0</v>
@@ -30101,10 +30101,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n" s="4">
-        <v>53.0</v>
+        <v>55.0</v>
       </c>
       <c r="C76" t="n" s="4">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="D76" t="n" s="4">
         <v>43.0</v>
@@ -30137,7 +30137,7 @@
         <v>3.0</v>
       </c>
       <c r="N76" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O76" t="n" s="4">
         <v>0.0</v>
@@ -30146,7 +30146,7 @@
         <v>11.0</v>
       </c>
       <c r="Q76" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R76" t="n" s="4">
         <v>30.0</v>
@@ -30215,7 +30215,7 @@
         <v>4.0</v>
       </c>
       <c r="AN76" t="n" s="4">
-        <v>47.0</v>
+        <v>52.0</v>
       </c>
       <c r="AO76" t="n" s="4">
         <v>86.0</v>
@@ -30236,10 +30236,10 @@
         <v>0.0</v>
       </c>
       <c r="AU76" t="n" s="4">
-        <v>21.0</v>
+        <v>37.0</v>
       </c>
       <c r="AV76" t="n" s="4">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
       <c r="AW76" t="n" s="4">
         <v>0.0</v>
@@ -30352,10 +30352,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n" s="4">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C77" t="n" s="4">
-        <v>67.0</v>
+        <v>72.0</v>
       </c>
       <c r="D77" t="n" s="4">
         <v>68.0</v>
@@ -30388,7 +30388,7 @@
         <v>3.0</v>
       </c>
       <c r="N77" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O77" t="n" s="4">
         <v>0.0</v>
@@ -30397,7 +30397,7 @@
         <v>11.0</v>
       </c>
       <c r="Q77" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R77" t="n" s="4">
         <v>20.0</v>
@@ -30603,10 +30603,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n" s="4">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="C78" t="n" s="4">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="D78" t="n" s="4">
         <v>87.0</v>
@@ -30639,7 +30639,7 @@
         <v>3.0</v>
       </c>
       <c r="N78" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O78" t="n" s="4">
         <v>0.0</v>
@@ -30648,7 +30648,7 @@
         <v>11.0</v>
       </c>
       <c r="Q78" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R78" t="n" s="4">
         <v>80.0</v>
@@ -30854,10 +30854,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n" s="4">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C79" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D79" t="n" s="4">
         <v>65.0</v>
@@ -30890,7 +30890,7 @@
         <v>3.0</v>
       </c>
       <c r="N79" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O79" t="n" s="4">
         <v>0.0</v>
@@ -30899,7 +30899,7 @@
         <v>11.0</v>
       </c>
       <c r="Q79" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R79" t="n" s="4">
         <v>20.0</v>
@@ -31105,10 +31105,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n" s="4">
+        <v>62.0</v>
+      </c>
+      <c r="C80" t="n" s="4">
         <v>61.0</v>
-      </c>
-      <c r="C80" t="n" s="4">
-        <v>56.0</v>
       </c>
       <c r="D80" t="n" s="4">
         <v>29.0</v>
@@ -31141,7 +31141,7 @@
         <v>3.0</v>
       </c>
       <c r="N80" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O80" t="n" s="4">
         <v>0.0</v>
@@ -31150,7 +31150,7 @@
         <v>11.0</v>
       </c>
       <c r="Q80" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R80" t="n" s="4">
         <v>50.0</v>
@@ -31356,10 +31356,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n" s="4">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="C81" t="n" s="4">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="D81" t="n" s="4">
         <v>29.0</v>
@@ -31392,7 +31392,7 @@
         <v>3.0</v>
       </c>
       <c r="N81" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O81" t="n" s="4">
         <v>0.0</v>
@@ -31401,7 +31401,7 @@
         <v>11.0</v>
       </c>
       <c r="Q81" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R81" t="n" s="4">
         <v>80.0</v>
@@ -31607,10 +31607,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n" s="4">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C82" t="n" s="4">
-        <v>59.0</v>
+        <v>64.0</v>
       </c>
       <c r="D82" t="n" s="4">
         <v>51.0</v>
@@ -31643,7 +31643,7 @@
         <v>3.0</v>
       </c>
       <c r="N82" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O82" t="n" s="4">
         <v>0.0</v>
@@ -31652,7 +31652,7 @@
         <v>11.0</v>
       </c>
       <c r="Q82" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R82" t="n" s="4">
         <v>20.0</v>
@@ -31858,10 +31858,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C83" t="n" s="4">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="D83" t="n" s="4">
         <v>78.0</v>
@@ -31894,7 +31894,7 @@
         <v>3.0</v>
       </c>
       <c r="N83" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O83" t="n" s="4">
         <v>0.0</v>
@@ -31903,7 +31903,7 @@
         <v>11.0</v>
       </c>
       <c r="Q83" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R83" t="n" s="4">
         <v>30.0</v>
@@ -32109,10 +32109,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n" s="4">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C84" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D84" t="n" s="4">
         <v>65.0</v>
@@ -32145,7 +32145,7 @@
         <v>3.0</v>
       </c>
       <c r="N84" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O84" t="n" s="4">
         <v>0.0</v>
@@ -32154,7 +32154,7 @@
         <v>11.0</v>
       </c>
       <c r="Q84" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R84" t="n" s="4">
         <v>20.0</v>
@@ -32360,10 +32360,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C85" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D85" t="n" s="4">
         <v>65.0</v>
@@ -32396,7 +32396,7 @@
         <v>3.0</v>
       </c>
       <c r="N85" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O85" t="n" s="4">
         <v>0.0</v>
@@ -32405,7 +32405,7 @@
         <v>11.0</v>
       </c>
       <c r="Q85" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R85" t="n" s="4">
         <v>20.0</v>
@@ -32611,10 +32611,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n" s="4">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C86" t="n" s="4">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="D86" t="n" s="4">
         <v>43.0</v>
@@ -32647,7 +32647,7 @@
         <v>3.0</v>
       </c>
       <c r="N86" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O86" t="n" s="4">
         <v>0.0</v>
@@ -32656,7 +32656,7 @@
         <v>11.0</v>
       </c>
       <c r="Q86" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R86" t="n" s="4">
         <v>30.0</v>
@@ -32862,10 +32862,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C87" t="n" s="4">
-        <v>55.0</v>
+        <v>59.0</v>
       </c>
       <c r="D87" t="n" s="4">
         <v>29.0</v>
@@ -32898,7 +32898,7 @@
         <v>3.0</v>
       </c>
       <c r="N87" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O87" t="n" s="4">
         <v>0.0</v>
@@ -32907,7 +32907,7 @@
         <v>11.0</v>
       </c>
       <c r="Q87" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R87" t="n" s="4">
         <v>40.0</v>
@@ -33113,10 +33113,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n" s="4">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="C88" t="n" s="4">
-        <v>70.0</v>
+        <v>74.0</v>
       </c>
       <c r="D88" t="n" s="4">
         <v>65.0</v>
@@ -33149,7 +33149,7 @@
         <v>3.0</v>
       </c>
       <c r="N88" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O88" t="n" s="4">
         <v>0.0</v>
@@ -33158,7 +33158,7 @@
         <v>11.0</v>
       </c>
       <c r="Q88" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R88" t="n" s="4">
         <v>40.0</v>
@@ -33364,10 +33364,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n" s="4">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C89" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D89" t="n" s="4">
         <v>65.0</v>
@@ -33400,7 +33400,7 @@
         <v>3.0</v>
       </c>
       <c r="N89" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O89" t="n" s="4">
         <v>0.0</v>
@@ -33409,7 +33409,7 @@
         <v>11.0</v>
       </c>
       <c r="Q89" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R89" t="n" s="4">
         <v>30.0</v>
@@ -33615,10 +33615,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n" s="4">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C90" t="n" s="4">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
       <c r="D90" t="n" s="4">
         <v>78.0</v>
@@ -33651,7 +33651,7 @@
         <v>3.0</v>
       </c>
       <c r="N90" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O90" t="n" s="4">
         <v>0.0</v>
@@ -33660,7 +33660,7 @@
         <v>11.0</v>
       </c>
       <c r="Q90" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R90" t="n" s="4">
         <v>20.0</v>
@@ -33866,10 +33866,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n" s="4">
-        <v>26.0</v>
+        <v>27.0</v>
       </c>
       <c r="C91" t="n" s="4">
-        <v>41.0</v>
+        <v>45.0</v>
       </c>
       <c r="D91" t="n" s="4">
         <v>29.0</v>
@@ -33902,7 +33902,7 @@
         <v>3.0</v>
       </c>
       <c r="N91" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O91" t="n" s="4">
         <v>0.0</v>
@@ -33911,7 +33911,7 @@
         <v>11.0</v>
       </c>
       <c r="Q91" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R91" t="n" s="4">
         <v>20.0</v>
@@ -34117,10 +34117,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n" s="4">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C92" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D92" t="n" s="4">
         <v>51.0</v>
@@ -34153,7 +34153,7 @@
         <v>3.0</v>
       </c>
       <c r="N92" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O92" t="n" s="4">
         <v>0.0</v>
@@ -34162,7 +34162,7 @@
         <v>11.0</v>
       </c>
       <c r="Q92" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R92" t="n" s="4">
         <v>50.0</v>
@@ -34368,10 +34368,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n" s="4">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C93" t="n" s="4">
-        <v>69.0</v>
+        <v>74.0</v>
       </c>
       <c r="D93" t="n" s="4">
         <v>78.0</v>
@@ -34404,7 +34404,7 @@
         <v>3.0</v>
       </c>
       <c r="N93" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O93" t="n" s="4">
         <v>0.0</v>
@@ -34413,7 +34413,7 @@
         <v>11.0</v>
       </c>
       <c r="Q93" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R93" t="n" s="4">
         <v>20.0</v>
@@ -34619,10 +34619,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n" s="4">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C94" t="n" s="4">
-        <v>77.0</v>
+        <v>82.0</v>
       </c>
       <c r="D94" t="n" s="4">
         <v>65.0</v>
@@ -34655,7 +34655,7 @@
         <v>3.0</v>
       </c>
       <c r="N94" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O94" t="n" s="4">
         <v>0.0</v>
@@ -34664,7 +34664,7 @@
         <v>11.0</v>
       </c>
       <c r="Q94" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R94" t="n" s="4">
         <v>80.0</v>
@@ -34870,10 +34870,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n" s="4">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C95" t="n" s="4">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="D95" t="n" s="4">
         <v>65.0</v>
@@ -34906,7 +34906,7 @@
         <v>3.0</v>
       </c>
       <c r="N95" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O95" t="n" s="4">
         <v>0.0</v>
@@ -34915,7 +34915,7 @@
         <v>11.0</v>
       </c>
       <c r="Q95" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R95" t="n" s="4">
         <v>30.0</v>
@@ -35121,10 +35121,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n" s="4">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C96" t="n" s="4">
-        <v>71.0</v>
+        <v>75.0</v>
       </c>
       <c r="D96" t="n" s="4">
         <v>78.0</v>
@@ -35157,7 +35157,7 @@
         <v>3.0</v>
       </c>
       <c r="N96" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O96" t="n" s="4">
         <v>0.0</v>
@@ -35166,7 +35166,7 @@
         <v>11.0</v>
       </c>
       <c r="Q96" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R96" t="n" s="4">
         <v>20.0</v>
@@ -35372,10 +35372,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n" s="4">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C97" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D97" t="n" s="4">
         <v>51.0</v>
@@ -35408,7 +35408,7 @@
         <v>3.0</v>
       </c>
       <c r="N97" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O97" t="n" s="4">
         <v>0.0</v>
@@ -35417,7 +35417,7 @@
         <v>11.0</v>
       </c>
       <c r="Q97" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R97" t="n" s="4">
         <v>40.0</v>
@@ -35623,10 +35623,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C98" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D98" t="n" s="4">
         <v>65.0</v>
@@ -35659,7 +35659,7 @@
         <v>3.0</v>
       </c>
       <c r="N98" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O98" t="n" s="4">
         <v>0.0</v>
@@ -35668,7 +35668,7 @@
         <v>11.0</v>
       </c>
       <c r="Q98" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R98" t="n" s="4">
         <v>20.0</v>
@@ -35877,7 +35877,7 @@
         <v>65.0</v>
       </c>
       <c r="C99" t="n" s="4">
-        <v>71.0</v>
+        <v>76.0</v>
       </c>
       <c r="D99" t="n" s="4">
         <v>78.0</v>
@@ -35910,7 +35910,7 @@
         <v>3.0</v>
       </c>
       <c r="N99" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O99" t="n" s="4">
         <v>0.0</v>
@@ -35919,7 +35919,7 @@
         <v>11.0</v>
       </c>
       <c r="Q99" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R99" t="n" s="4">
         <v>30.0</v>
@@ -36045,7 +36045,7 @@
         <v>7.0</v>
       </c>
       <c r="BG99" t="n" s="4">
-        <v>50.0</v>
+        <v>45.0</v>
       </c>
       <c r="BH99" t="n" s="4">
         <v>15.0</v>
@@ -36069,10 +36069,10 @@
         <v>0.0</v>
       </c>
       <c r="BO99" t="n" s="4">
-        <v>86.0</v>
+        <v>67.0</v>
       </c>
       <c r="BP99" t="n" s="4">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
       <c r="BQ99" t="n" s="4">
         <v>7.0</v>
@@ -36125,10 +36125,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n" s="4">
-        <v>47.0</v>
+        <v>48.0</v>
       </c>
       <c r="C100" t="n" s="4">
-        <v>58.0</v>
+        <v>63.0</v>
       </c>
       <c r="D100" t="n" s="4">
         <v>29.0</v>
@@ -36161,7 +36161,7 @@
         <v>3.0</v>
       </c>
       <c r="N100" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O100" t="n" s="4">
         <v>0.0</v>
@@ -36170,7 +36170,7 @@
         <v>11.0</v>
       </c>
       <c r="Q100" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R100" t="n" s="4">
         <v>60.0</v>
@@ -36376,10 +36376,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n" s="4">
-        <v>52.0</v>
+        <v>53.0</v>
       </c>
       <c r="C101" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D101" t="n" s="4">
         <v>51.0</v>
@@ -36412,7 +36412,7 @@
         <v>3.0</v>
       </c>
       <c r="N101" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O101" t="n" s="4">
         <v>0.0</v>
@@ -36421,7 +36421,7 @@
         <v>11.0</v>
       </c>
       <c r="Q101" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R101" t="n" s="4">
         <v>60.0</v>
@@ -36627,10 +36627,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n" s="4">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C102" t="n" s="4">
-        <v>69.0</v>
+        <v>74.0</v>
       </c>
       <c r="D102" t="n" s="4">
         <v>78.0</v>
@@ -36663,7 +36663,7 @@
         <v>3.0</v>
       </c>
       <c r="N102" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O102" t="n" s="4">
         <v>0.0</v>
@@ -36672,7 +36672,7 @@
         <v>11.0</v>
       </c>
       <c r="Q102" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R102" t="n" s="4">
         <v>20.0</v>
@@ -36878,10 +36878,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n" s="4">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C103" t="n" s="4">
-        <v>72.0</v>
+        <v>77.0</v>
       </c>
       <c r="D103" t="n" s="4">
         <v>65.0</v>
@@ -36914,7 +36914,7 @@
         <v>3.0</v>
       </c>
       <c r="N103" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O103" t="n" s="4">
         <v>0.0</v>
@@ -36923,7 +36923,7 @@
         <v>11.0</v>
       </c>
       <c r="Q103" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R103" t="n" s="4">
         <v>60.0</v>
@@ -37129,10 +37129,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n" s="4">
-        <v>61.0</v>
+        <v>62.0</v>
       </c>
       <c r="C104" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D104" t="n" s="4">
         <v>65.0</v>
@@ -37165,7 +37165,7 @@
         <v>3.0</v>
       </c>
       <c r="N104" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O104" t="n" s="4">
         <v>0.0</v>
@@ -37174,7 +37174,7 @@
         <v>11.0</v>
       </c>
       <c r="Q104" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R104" t="n" s="4">
         <v>20.0</v>
@@ -37380,10 +37380,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n" s="4">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C105" t="n" s="4">
-        <v>68.0</v>
+        <v>73.0</v>
       </c>
       <c r="D105" t="n" s="4">
         <v>65.0</v>
@@ -37416,7 +37416,7 @@
         <v>3.0</v>
       </c>
       <c r="N105" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O105" t="n" s="4">
         <v>0.0</v>
@@ -37425,7 +37425,7 @@
         <v>11.0</v>
       </c>
       <c r="Q105" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R105" t="n" s="4">
         <v>40.0</v>
@@ -37631,10 +37631,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n" s="4">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C106" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D106" t="n" s="4">
         <v>51.0</v>
@@ -37667,7 +37667,7 @@
         <v>3.0</v>
       </c>
       <c r="N106" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O106" t="n" s="4">
         <v>0.0</v>
@@ -37676,7 +37676,7 @@
         <v>11.0</v>
       </c>
       <c r="Q106" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R106" t="n" s="4">
         <v>40.0</v>
@@ -37882,10 +37882,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n" s="4">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C107" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D107" t="n" s="4">
         <v>65.0</v>
@@ -37918,7 +37918,7 @@
         <v>3.0</v>
       </c>
       <c r="N107" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O107" t="n" s="4">
         <v>0.0</v>
@@ -37927,7 +37927,7 @@
         <v>11.0</v>
       </c>
       <c r="Q107" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R107" t="n" s="4">
         <v>30.0</v>
@@ -38133,10 +38133,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n" s="4">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C108" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D108" t="n" s="4">
         <v>51.0</v>
@@ -38169,7 +38169,7 @@
         <v>3.0</v>
       </c>
       <c r="N108" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O108" t="n" s="4">
         <v>0.0</v>
@@ -38178,7 +38178,7 @@
         <v>11.0</v>
       </c>
       <c r="Q108" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R108" t="n" s="4">
         <v>40.0</v>
@@ -38384,10 +38384,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n" s="4">
-        <v>65.0</v>
+        <v>66.0</v>
       </c>
       <c r="C109" t="n" s="4">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="D109" t="n" s="4">
         <v>65.0</v>
@@ -38420,7 +38420,7 @@
         <v>3.0</v>
       </c>
       <c r="N109" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O109" t="n" s="4">
         <v>0.0</v>
@@ -38429,7 +38429,7 @@
         <v>11.0</v>
       </c>
       <c r="Q109" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R109" t="n" s="4">
         <v>80.0</v>
@@ -38635,10 +38635,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n" s="4">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C110" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D110" t="n" s="4">
         <v>65.0</v>
@@ -38671,7 +38671,7 @@
         <v>3.0</v>
       </c>
       <c r="N110" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O110" t="n" s="4">
         <v>0.0</v>
@@ -38680,7 +38680,7 @@
         <v>11.0</v>
       </c>
       <c r="Q110" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R110" t="n" s="4">
         <v>20.0</v>
@@ -38886,10 +38886,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n" s="4">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C111" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D111" t="n" s="4">
         <v>65.0</v>
@@ -38922,7 +38922,7 @@
         <v>3.0</v>
       </c>
       <c r="N111" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O111" t="n" s="4">
         <v>0.0</v>
@@ -38931,7 +38931,7 @@
         <v>11.0</v>
       </c>
       <c r="Q111" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R111" t="n" s="4">
         <v>20.0</v>
@@ -39137,10 +39137,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n" s="4">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C112" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D112" t="n" s="4">
         <v>65.0</v>
@@ -39173,7 +39173,7 @@
         <v>3.0</v>
       </c>
       <c r="N112" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O112" t="n" s="4">
         <v>0.0</v>
@@ -39182,7 +39182,7 @@
         <v>11.0</v>
       </c>
       <c r="Q112" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R112" t="n" s="4">
         <v>20.0</v>
@@ -39388,10 +39388,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n" s="4">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="C113" t="n" s="4">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="D113" t="n" s="4">
         <v>29.0</v>
@@ -39424,7 +39424,7 @@
         <v>3.0</v>
       </c>
       <c r="N113" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O113" t="n" s="4">
         <v>0.0</v>
@@ -39433,7 +39433,7 @@
         <v>11.0</v>
       </c>
       <c r="Q113" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R113" t="n" s="4">
         <v>20.0</v>
@@ -39639,10 +39639,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n" s="4">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C114" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D114" t="n" s="4">
         <v>51.0</v>
@@ -39675,7 +39675,7 @@
         <v>3.0</v>
       </c>
       <c r="N114" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O114" t="n" s="4">
         <v>0.0</v>
@@ -39684,7 +39684,7 @@
         <v>11.0</v>
       </c>
       <c r="Q114" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R114" t="n" s="4">
         <v>40.0</v>
@@ -39890,10 +39890,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n" s="4">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C115" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D115" t="n" s="4">
         <v>65.0</v>
@@ -39926,7 +39926,7 @@
         <v>3.0</v>
       </c>
       <c r="N115" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O115" t="n" s="4">
         <v>0.0</v>
@@ -39935,7 +39935,7 @@
         <v>11.0</v>
       </c>
       <c r="Q115" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R115" t="n" s="4">
         <v>20.0</v>
@@ -40141,10 +40141,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n" s="4">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C116" t="n" s="4">
-        <v>62.0</v>
+        <v>66.0</v>
       </c>
       <c r="D116" t="n" s="4">
         <v>58.0</v>
@@ -40177,7 +40177,7 @@
         <v>3.0</v>
       </c>
       <c r="N116" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O116" t="n" s="4">
         <v>0.0</v>
@@ -40186,7 +40186,7 @@
         <v>11.0</v>
       </c>
       <c r="Q116" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R116" t="n" s="4">
         <v>20.0</v>
@@ -40392,10 +40392,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n" s="4">
-        <v>44.0</v>
+        <v>45.0</v>
       </c>
       <c r="C117" t="n" s="4">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="D117" t="n" s="4">
         <v>29.0</v>
@@ -40428,7 +40428,7 @@
         <v>3.0</v>
       </c>
       <c r="N117" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O117" t="n" s="4">
         <v>0.0</v>
@@ -40437,7 +40437,7 @@
         <v>11.0</v>
       </c>
       <c r="Q117" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R117" t="n" s="4">
         <v>20.0</v>
@@ -40643,10 +40643,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n" s="4">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C118" t="n" s="4">
-        <v>61.0</v>
+        <v>65.0</v>
       </c>
       <c r="D118" t="n" s="4">
         <v>51.0</v>
@@ -40679,7 +40679,7 @@
         <v>3.0</v>
       </c>
       <c r="N118" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O118" t="n" s="4">
         <v>0.0</v>
@@ -40688,7 +40688,7 @@
         <v>11.0</v>
       </c>
       <c r="Q118" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R118" t="n" s="4">
         <v>20.0</v>
@@ -40894,10 +40894,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n" s="4">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C119" t="n" s="4">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="D119" t="n" s="4">
         <v>65.0</v>
@@ -40930,7 +40930,7 @@
         <v>3.0</v>
       </c>
       <c r="N119" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O119" t="n" s="4">
         <v>0.0</v>
@@ -40939,7 +40939,7 @@
         <v>11.0</v>
       </c>
       <c r="Q119" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R119" t="n" s="4">
         <v>30.0</v>
@@ -41145,10 +41145,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n" s="4">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C120" t="n" s="4">
-        <v>69.0</v>
+        <v>74.0</v>
       </c>
       <c r="D120" t="n" s="4">
         <v>78.0</v>
@@ -41181,7 +41181,7 @@
         <v>3.0</v>
       </c>
       <c r="N120" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O120" t="n" s="4">
         <v>0.0</v>
@@ -41190,7 +41190,7 @@
         <v>11.0</v>
       </c>
       <c r="Q120" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R120" t="n" s="4">
         <v>20.0</v>
@@ -41396,10 +41396,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n" s="4">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C121" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D121" t="n" s="4">
         <v>65.0</v>
@@ -41432,7 +41432,7 @@
         <v>3.0</v>
       </c>
       <c r="N121" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O121" t="n" s="4">
         <v>0.0</v>
@@ -41441,7 +41441,7 @@
         <v>11.0</v>
       </c>
       <c r="Q121" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R121" t="n" s="4">
         <v>30.0</v>
@@ -41647,10 +41647,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n" s="4">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C122" t="n" s="4">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="D122" t="n" s="4">
         <v>87.0</v>
@@ -41683,7 +41683,7 @@
         <v>3.0</v>
       </c>
       <c r="N122" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O122" t="n" s="4">
         <v>0.0</v>
@@ -41692,7 +41692,7 @@
         <v>11.0</v>
       </c>
       <c r="Q122" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R122" t="n" s="4">
         <v>80.0</v>
@@ -41898,10 +41898,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n" s="4">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C123" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D123" t="n" s="4">
         <v>51.0</v>
@@ -41934,7 +41934,7 @@
         <v>3.0</v>
       </c>
       <c r="N123" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O123" t="n" s="4">
         <v>0.0</v>
@@ -41943,7 +41943,7 @@
         <v>11.0</v>
       </c>
       <c r="Q123" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R123" t="n" s="4">
         <v>40.0</v>
@@ -42149,10 +42149,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n" s="4">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C124" t="n" s="4">
-        <v>73.0</v>
+        <v>77.0</v>
       </c>
       <c r="D124" t="n" s="4">
         <v>87.0</v>
@@ -42185,7 +42185,7 @@
         <v>3.0</v>
       </c>
       <c r="N124" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O124" t="n" s="4">
         <v>0.0</v>
@@ -42194,7 +42194,7 @@
         <v>11.0</v>
       </c>
       <c r="Q124" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R124" t="n" s="4">
         <v>20.0</v>
@@ -42400,10 +42400,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n" s="4">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C125" t="n" s="4">
-        <v>73.0</v>
+        <v>78.0</v>
       </c>
       <c r="D125" t="n" s="4">
         <v>65.0</v>
@@ -42436,7 +42436,7 @@
         <v>3.0</v>
       </c>
       <c r="N125" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O125" t="n" s="4">
         <v>0.0</v>
@@ -42445,7 +42445,7 @@
         <v>11.0</v>
       </c>
       <c r="Q125" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R125" t="n" s="4">
         <v>60.0</v>
@@ -42651,10 +42651,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n" s="4">
-        <v>52.0</v>
+        <v>54.0</v>
       </c>
       <c r="C126" t="n" s="4">
-        <v>60.0</v>
+        <v>65.0</v>
       </c>
       <c r="D126" t="n" s="4">
         <v>51.0</v>
@@ -42687,7 +42687,7 @@
         <v>3.0</v>
       </c>
       <c r="N126" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O126" t="n" s="4">
         <v>0.0</v>
@@ -42696,7 +42696,7 @@
         <v>11.0</v>
       </c>
       <c r="Q126" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R126" t="n" s="4">
         <v>40.0</v>
@@ -42902,10 +42902,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n" s="4">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C127" t="n" s="4">
-        <v>66.0</v>
+        <v>71.0</v>
       </c>
       <c r="D127" t="n" s="4">
         <v>65.0</v>
@@ -42938,7 +42938,7 @@
         <v>3.0</v>
       </c>
       <c r="N127" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O127" t="n" s="4">
         <v>0.0</v>
@@ -42947,7 +42947,7 @@
         <v>11.0</v>
       </c>
       <c r="Q127" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R127" t="n" s="4">
         <v>20.0</v>
@@ -43153,10 +43153,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n" s="4">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C128" t="n" s="4">
-        <v>64.0</v>
+        <v>68.0</v>
       </c>
       <c r="D128" t="n" s="4">
         <v>58.0</v>
@@ -43189,7 +43189,7 @@
         <v>3.0</v>
       </c>
       <c r="N128" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O128" t="n" s="4">
         <v>0.0</v>
@@ -43198,7 +43198,7 @@
         <v>11.0</v>
       </c>
       <c r="Q128" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R128" t="n" s="4">
         <v>30.0</v>
@@ -43404,10 +43404,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n" s="4">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C129" t="n" s="4">
-        <v>61.0</v>
+        <v>66.0</v>
       </c>
       <c r="D129" t="n" s="4">
         <v>51.0</v>
@@ -43440,7 +43440,7 @@
         <v>3.0</v>
       </c>
       <c r="N129" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O129" t="n" s="4">
         <v>0.0</v>
@@ -43449,7 +43449,7 @@
         <v>11.0</v>
       </c>
       <c r="Q129" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R129" t="n" s="4">
         <v>30.0</v>
@@ -43464,10 +43464,10 @@
         <v>0.0</v>
       </c>
       <c r="V129" t="n" s="4">
-        <v>86.0</v>
+        <v>89.0</v>
       </c>
       <c r="W129" t="n" s="4">
-        <v>65.0</v>
+        <v>72.0</v>
       </c>
       <c r="X129" t="n" s="4">
         <v>0.0</v>
@@ -43476,7 +43476,7 @@
         <v>7.0</v>
       </c>
       <c r="Z129" t="n" s="4">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="AA129" t="n" s="4">
         <v>6.0</v>
@@ -43655,10 +43655,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n" s="4">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C130" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D130" t="n" s="4">
         <v>51.0</v>
@@ -43691,7 +43691,7 @@
         <v>3.0</v>
       </c>
       <c r="N130" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O130" t="n" s="4">
         <v>0.0</v>
@@ -43700,7 +43700,7 @@
         <v>11.0</v>
       </c>
       <c r="Q130" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R130" t="n" s="4">
         <v>50.0</v>
@@ -43906,10 +43906,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n" s="4">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C131" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D131" t="n" s="4">
         <v>51.0</v>
@@ -43942,7 +43942,7 @@
         <v>3.0</v>
       </c>
       <c r="N131" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O131" t="n" s="4">
         <v>0.0</v>
@@ -43951,7 +43951,7 @@
         <v>11.0</v>
       </c>
       <c r="Q131" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R131" t="n" s="4">
         <v>50.0</v>
@@ -44157,10 +44157,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C132" t="n" s="4">
-        <v>72.0</v>
+        <v>77.0</v>
       </c>
       <c r="D132" t="n" s="4">
         <v>65.0</v>
@@ -44193,7 +44193,7 @@
         <v>3.0</v>
       </c>
       <c r="N132" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O132" t="n" s="4">
         <v>0.0</v>
@@ -44202,7 +44202,7 @@
         <v>11.0</v>
       </c>
       <c r="Q132" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R132" t="n" s="4">
         <v>60.0</v>
@@ -44408,10 +44408,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n" s="4">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="C133" t="n" s="4">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="D133" t="n" s="4">
         <v>87.0</v>
@@ -44444,7 +44444,7 @@
         <v>3.0</v>
       </c>
       <c r="N133" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O133" t="n" s="4">
         <v>0.0</v>
@@ -44453,7 +44453,7 @@
         <v>11.0</v>
       </c>
       <c r="Q133" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R133" t="n" s="4">
         <v>80.0</v>
@@ -44659,10 +44659,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n" s="4">
-        <v>67.0</v>
+        <v>68.0</v>
       </c>
       <c r="C134" t="n" s="4">
-        <v>75.0</v>
+        <v>79.0</v>
       </c>
       <c r="D134" t="n" s="4">
         <v>78.0</v>
@@ -44695,7 +44695,7 @@
         <v>3.0</v>
       </c>
       <c r="N134" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O134" t="n" s="4">
         <v>0.0</v>
@@ -44704,7 +44704,7 @@
         <v>11.0</v>
       </c>
       <c r="Q134" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R134" t="n" s="4">
         <v>50.0</v>
@@ -44910,10 +44910,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n" s="4">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C135" t="n" s="4">
-        <v>61.0</v>
+        <v>65.0</v>
       </c>
       <c r="D135" t="n" s="4">
         <v>51.0</v>
@@ -44946,7 +44946,7 @@
         <v>3.0</v>
       </c>
       <c r="N135" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O135" t="n" s="4">
         <v>0.0</v>
@@ -44955,7 +44955,7 @@
         <v>11.0</v>
       </c>
       <c r="Q135" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R135" t="n" s="4">
         <v>20.0</v>
@@ -45161,10 +45161,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n" s="4">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C136" t="n" s="4">
-        <v>61.0</v>
+        <v>66.0</v>
       </c>
       <c r="D136" t="n" s="4">
         <v>51.0</v>
@@ -45197,7 +45197,7 @@
         <v>3.0</v>
       </c>
       <c r="N136" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O136" t="n" s="4">
         <v>0.0</v>
@@ -45206,7 +45206,7 @@
         <v>11.0</v>
       </c>
       <c r="Q136" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R136" t="n" s="4">
         <v>30.0</v>
@@ -45412,10 +45412,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n" s="4">
-        <v>53.0</v>
+        <v>54.0</v>
       </c>
       <c r="C137" t="n" s="4">
-        <v>59.0</v>
+        <v>64.0</v>
       </c>
       <c r="D137" t="n" s="4">
         <v>51.0</v>
@@ -45448,7 +45448,7 @@
         <v>3.0</v>
       </c>
       <c r="N137" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O137" t="n" s="4">
         <v>0.0</v>
@@ -45457,7 +45457,7 @@
         <v>11.0</v>
       </c>
       <c r="Q137" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R137" t="n" s="4">
         <v>20.0</v>
@@ -45663,10 +45663,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n" s="4">
-        <v>55.0</v>
+        <v>56.0</v>
       </c>
       <c r="C138" t="n" s="4">
-        <v>68.0</v>
+        <v>72.0</v>
       </c>
       <c r="D138" t="n" s="4">
         <v>65.0</v>
@@ -45699,7 +45699,7 @@
         <v>3.0</v>
       </c>
       <c r="N138" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O138" t="n" s="4">
         <v>0.0</v>
@@ -45708,7 +45708,7 @@
         <v>11.0</v>
       </c>
       <c r="Q138" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R138" t="n" s="4">
         <v>30.0</v>
@@ -45914,10 +45914,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n" s="4">
-        <v>62.0</v>
+        <v>63.0</v>
       </c>
       <c r="C139" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D139" t="n" s="4">
         <v>65.0</v>
@@ -45950,7 +45950,7 @@
         <v>3.0</v>
       </c>
       <c r="N139" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O139" t="n" s="4">
         <v>0.0</v>
@@ -45959,7 +45959,7 @@
         <v>11.0</v>
       </c>
       <c r="Q139" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R139" t="n" s="4">
         <v>20.0</v>
@@ -46165,10 +46165,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n" s="4">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C140" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D140" t="n" s="4">
         <v>51.0</v>
@@ -46201,7 +46201,7 @@
         <v>3.0</v>
       </c>
       <c r="N140" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O140" t="n" s="4">
         <v>0.0</v>
@@ -46210,7 +46210,7 @@
         <v>11.0</v>
       </c>
       <c r="Q140" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R140" t="n" s="4">
         <v>40.0</v>
@@ -46416,10 +46416,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n" s="4">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C141" t="n" s="4">
-        <v>84.0</v>
+        <v>88.0</v>
       </c>
       <c r="D141" t="n" s="4">
         <v>87.0</v>
@@ -46452,7 +46452,7 @@
         <v>3.0</v>
       </c>
       <c r="N141" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O141" t="n" s="4">
         <v>0.0</v>
@@ -46461,7 +46461,7 @@
         <v>11.0</v>
       </c>
       <c r="Q141" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R141" t="n" s="4">
         <v>80.0</v>
@@ -46667,10 +46667,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n" s="4">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C142" t="n" s="4">
-        <v>77.0</v>
+        <v>82.0</v>
       </c>
       <c r="D142" t="n" s="4">
         <v>65.0</v>
@@ -46703,7 +46703,7 @@
         <v>3.0</v>
       </c>
       <c r="N142" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O142" t="n" s="4">
         <v>0.0</v>
@@ -46712,7 +46712,7 @@
         <v>11.0</v>
       </c>
       <c r="Q142" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R142" t="n" s="4">
         <v>80.0</v>
@@ -46918,10 +46918,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n" s="4">
-        <v>46.0</v>
+        <v>47.0</v>
       </c>
       <c r="C143" t="n" s="4">
-        <v>51.0</v>
+        <v>55.0</v>
       </c>
       <c r="D143" t="n" s="4">
         <v>29.0</v>
@@ -46954,7 +46954,7 @@
         <v>3.0</v>
       </c>
       <c r="N143" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O143" t="n" s="4">
         <v>0.0</v>
@@ -46963,7 +46963,7 @@
         <v>11.0</v>
       </c>
       <c r="Q143" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R143" t="n" s="4">
         <v>20.0</v>
@@ -47169,10 +47169,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n" s="4">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C144" t="n" s="4">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="D144" t="n" s="4">
         <v>87.0</v>
@@ -47205,7 +47205,7 @@
         <v>3.0</v>
       </c>
       <c r="N144" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O144" t="n" s="4">
         <v>0.0</v>
@@ -47214,7 +47214,7 @@
         <v>11.0</v>
       </c>
       <c r="Q144" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R144" t="n" s="4">
         <v>80.0</v>
@@ -47420,10 +47420,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n" s="4">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C145" t="n" s="4">
-        <v>76.0</v>
+        <v>80.0</v>
       </c>
       <c r="D145" t="n" s="4">
         <v>65.0</v>
@@ -47456,7 +47456,7 @@
         <v>3.0</v>
       </c>
       <c r="N145" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O145" t="n" s="4">
         <v>0.0</v>
@@ -47465,7 +47465,7 @@
         <v>11.0</v>
       </c>
       <c r="Q145" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R145" t="n" s="4">
         <v>80.0</v>
@@ -47671,10 +47671,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n" s="4">
-        <v>64.0</v>
+        <v>65.0</v>
       </c>
       <c r="C146" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D146" t="n" s="4">
         <v>51.0</v>
@@ -47707,7 +47707,7 @@
         <v>3.0</v>
       </c>
       <c r="N146" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O146" t="n" s="4">
         <v>0.0</v>
@@ -47716,7 +47716,7 @@
         <v>11.0</v>
       </c>
       <c r="Q146" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R146" t="n" s="4">
         <v>40.0</v>
@@ -47922,10 +47922,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n" s="4">
-        <v>51.0</v>
+        <v>52.0</v>
       </c>
       <c r="C147" t="n" s="4">
-        <v>65.0</v>
+        <v>69.0</v>
       </c>
       <c r="D147" t="n" s="4">
         <v>65.0</v>
@@ -47958,7 +47958,7 @@
         <v>3.0</v>
       </c>
       <c r="N147" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O147" t="n" s="4">
         <v>0.0</v>
@@ -47967,7 +47967,7 @@
         <v>11.0</v>
       </c>
       <c r="Q147" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R147" t="n" s="4">
         <v>20.0</v>
@@ -48173,10 +48173,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n" s="4">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C148" t="n" s="4">
-        <v>85.0</v>
+        <v>90.0</v>
       </c>
       <c r="D148" t="n" s="4">
         <v>87.0</v>
@@ -48209,7 +48209,7 @@
         <v>3.0</v>
       </c>
       <c r="N148" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O148" t="n" s="4">
         <v>0.0</v>
@@ -48218,7 +48218,7 @@
         <v>11.0</v>
       </c>
       <c r="Q148" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R148" t="n" s="4">
         <v>80.0</v>
@@ -48424,10 +48424,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n" s="4">
-        <v>60.0</v>
+        <v>61.0</v>
       </c>
       <c r="C149" t="n" s="4">
-        <v>63.0</v>
+        <v>67.0</v>
       </c>
       <c r="D149" t="n" s="4">
         <v>51.0</v>
@@ -48460,7 +48460,7 @@
         <v>3.0</v>
       </c>
       <c r="N149" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O149" t="n" s="4">
         <v>0.0</v>
@@ -48469,7 +48469,7 @@
         <v>11.0</v>
       </c>
       <c r="Q149" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R149" t="n" s="4">
         <v>40.0</v>
@@ -48675,10 +48675,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n" s="4">
-        <v>68.0</v>
+        <v>69.0</v>
       </c>
       <c r="C150" t="n" s="4">
-        <v>80.0</v>
+        <v>84.0</v>
       </c>
       <c r="D150" t="n" s="4">
         <v>73.0</v>
@@ -48711,7 +48711,7 @@
         <v>3.0</v>
       </c>
       <c r="N150" t="n" s="4">
-        <v>76.0</v>
+        <v>100.0</v>
       </c>
       <c r="O150" t="n" s="4">
         <v>0.0</v>
@@ -48720,7 +48720,7 @@
         <v>11.0</v>
       </c>
       <c r="Q150" t="n" s="4">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="R150" t="n" s="4">
         <v>80.0</v>

--- a/doc/results/FAIR-results.xlsx
+++ b/doc/results/FAIR-results.xlsx
@@ -856,7 +856,7 @@
         <v>59.0</v>
       </c>
       <c r="C2" t="n" s="1">
-        <v>508.0</v>
+        <v>585.0</v>
       </c>
       <c r="D2" t="n" s="1">
         <v>65.0</v>
@@ -924,7 +924,7 @@
         <v>62.0</v>
       </c>
       <c r="C3" t="n" s="1">
-        <v>773.0</v>
+        <v>977.0</v>
       </c>
       <c r="D3" t="n" s="1">
         <v>70.0</v>
@@ -989,10 +989,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n" s="1">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="C4" t="n" s="1">
-        <v>1350.0</v>
+        <v>1949.0</v>
       </c>
       <c r="D4" t="n" s="1">
         <v>88.0</v>
@@ -1025,13 +1025,13 @@
         <v>100.0</v>
       </c>
       <c r="N4" t="n" s="1">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="O4" t="n" s="1">
         <v>86.0</v>
       </c>
       <c r="P4" t="n" s="1">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="Q4" t="n" s="1">
         <v>21.0</v>
@@ -1060,7 +1060,7 @@
         <v>64.0</v>
       </c>
       <c r="C5" t="n" s="1">
-        <v>580.0</v>
+        <v>854.0</v>
       </c>
       <c r="D5" t="n" s="1">
         <v>70.0</v>
@@ -1128,7 +1128,7 @@
         <v>59.0</v>
       </c>
       <c r="C6" t="n" s="1">
-        <v>543.0</v>
+        <v>733.0</v>
       </c>
       <c r="D6" t="n" s="1">
         <v>84.0</v>
@@ -1196,7 +1196,7 @@
         <v>65.0</v>
       </c>
       <c r="C7" t="n" s="1">
-        <v>600.0</v>
+        <v>902.0</v>
       </c>
       <c r="D7" t="n" s="1">
         <v>70.0</v>
@@ -1264,7 +1264,7 @@
         <v>66.0</v>
       </c>
       <c r="C8" t="n" s="1">
-        <v>1293.0</v>
+        <v>1614.0</v>
       </c>
       <c r="D8" t="n" s="1">
         <v>87.0</v>
@@ -1332,7 +1332,7 @@
         <v>65.0</v>
       </c>
       <c r="C9" t="n" s="1">
-        <v>1310.0</v>
+        <v>1146.0</v>
       </c>
       <c r="D9" t="n" s="1">
         <v>77.0</v>
@@ -1400,7 +1400,7 @@
         <v>64.0</v>
       </c>
       <c r="C10" t="n" s="1">
-        <v>1002.0</v>
+        <v>989.0</v>
       </c>
       <c r="D10" t="n" s="1">
         <v>70.0</v>
@@ -1465,10 +1465,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C11" t="n" s="1">
-        <v>742.0</v>
+        <v>1151.0</v>
       </c>
       <c r="D11" t="n" s="1">
         <v>69.0</v>
@@ -1501,13 +1501,13 @@
         <v>100.0</v>
       </c>
       <c r="N11" t="n" s="1">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="O11" t="n" s="1">
         <v>63.0</v>
       </c>
       <c r="P11" t="n" s="1">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="Q11" t="n" s="1">
         <v>21.0</v>
@@ -1536,7 +1536,7 @@
         <v>57.0</v>
       </c>
       <c r="C12" t="n" s="1">
-        <v>1060.0</v>
+        <v>1152.0</v>
       </c>
       <c r="D12" t="n" s="1">
         <v>79.0</v>
@@ -1604,7 +1604,7 @@
         <v>66.0</v>
       </c>
       <c r="C13" t="n" s="1">
-        <v>573.0</v>
+        <v>750.0</v>
       </c>
       <c r="D13" t="n" s="1">
         <v>72.0</v>
@@ -1672,7 +1672,7 @@
         <v>49.0</v>
       </c>
       <c r="C14" t="n" s="1">
-        <v>240.0</v>
+        <v>402.0</v>
       </c>
       <c r="D14" t="n" s="1">
         <v>61.0</v>
@@ -1740,7 +1740,7 @@
         <v>63.0</v>
       </c>
       <c r="C15" t="n" s="1">
-        <v>1745.0</v>
+        <v>1981.0</v>
       </c>
       <c r="D15" t="n" s="1">
         <v>74.0</v>
@@ -1808,7 +1808,7 @@
         <v>61.0</v>
       </c>
       <c r="C16" t="n" s="1">
-        <v>505.0</v>
+        <v>579.0</v>
       </c>
       <c r="D16" t="n" s="1">
         <v>81.0</v>
@@ -1876,7 +1876,7 @@
         <v>63.0</v>
       </c>
       <c r="C17" t="n" s="1">
-        <v>1033.0</v>
+        <v>1303.0</v>
       </c>
       <c r="D17" t="n" s="1">
         <v>87.0</v>
@@ -1944,7 +1944,7 @@
         <v>58.0</v>
       </c>
       <c r="C18" t="n" s="1">
-        <v>982.0</v>
+        <v>1146.0</v>
       </c>
       <c r="D18" t="n" s="1">
         <v>76.0</v>
@@ -2009,10 +2009,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n" s="1">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C19" t="n" s="1">
-        <v>2288.0</v>
+        <v>2274.0</v>
       </c>
       <c r="D19" t="n" s="1">
         <v>66.0</v>
@@ -2045,13 +2045,13 @@
         <v>100.0</v>
       </c>
       <c r="N19" t="n" s="1">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="O19" t="n" s="1">
         <v>79.0</v>
       </c>
       <c r="P19" t="n" s="1">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="Q19" t="n" s="1">
         <v>21.0</v>
@@ -2080,7 +2080,7 @@
         <v>51.0</v>
       </c>
       <c r="C20" t="n" s="1">
-        <v>360.0</v>
+        <v>513.0</v>
       </c>
       <c r="D20" t="n" s="1">
         <v>57.0</v>
@@ -2148,7 +2148,7 @@
         <v>60.0</v>
       </c>
       <c r="C21" t="n" s="1">
-        <v>1904.0</v>
+        <v>2205.0</v>
       </c>
       <c r="D21" t="n" s="1">
         <v>74.0</v>
@@ -2216,7 +2216,7 @@
         <v>61.0</v>
       </c>
       <c r="C22" t="n" s="1">
-        <v>589.0</v>
+        <v>821.0</v>
       </c>
       <c r="D22" t="n" s="1">
         <v>70.0</v>
@@ -2284,7 +2284,7 @@
         <v>63.0</v>
       </c>
       <c r="C23" t="n" s="1">
-        <v>874.0</v>
+        <v>965.0</v>
       </c>
       <c r="D23" t="n" s="1">
         <v>76.0</v>
@@ -2352,7 +2352,7 @@
         <v>65.0</v>
       </c>
       <c r="C24" t="n" s="1">
-        <v>536.0</v>
+        <v>865.0</v>
       </c>
       <c r="D24" t="n" s="1">
         <v>70.0</v>
@@ -2420,7 +2420,7 @@
         <v>60.0</v>
       </c>
       <c r="C25" t="n" s="1">
-        <v>938.0</v>
+        <v>1365.0</v>
       </c>
       <c r="D25" t="n" s="1">
         <v>66.0</v>
@@ -2488,7 +2488,7 @@
         <v>64.0</v>
       </c>
       <c r="C26" t="n" s="1">
-        <v>973.0</v>
+        <v>1300.0</v>
       </c>
       <c r="D26" t="n" s="1">
         <v>87.0</v>
@@ -2556,7 +2556,7 @@
         <v>68.0</v>
       </c>
       <c r="C27" t="n" s="1">
-        <v>639.0</v>
+        <v>1201.0</v>
       </c>
       <c r="D27" t="n" s="1">
         <v>76.0</v>
@@ -2624,7 +2624,7 @@
         <v>68.0</v>
       </c>
       <c r="C28" t="n" s="1">
-        <v>933.0</v>
+        <v>1354.0</v>
       </c>
       <c r="D28" t="n" s="1">
         <v>80.0</v>
@@ -2692,7 +2692,7 @@
         <v>60.0</v>
       </c>
       <c r="C29" t="n" s="1">
-        <v>602.0</v>
+        <v>832.0</v>
       </c>
       <c r="D29" t="n" s="1">
         <v>70.0</v>
@@ -2760,7 +2760,7 @@
         <v>66.0</v>
       </c>
       <c r="C30" t="n" s="1">
-        <v>864.0</v>
+        <v>631.0</v>
       </c>
       <c r="D30" t="n" s="1">
         <v>69.0</v>
@@ -2828,7 +2828,7 @@
         <v>60.0</v>
       </c>
       <c r="C31" t="n" s="1">
-        <v>1093.0</v>
+        <v>1300.0</v>
       </c>
       <c r="D31" t="n" s="1">
         <v>75.0</v>
@@ -2896,7 +2896,7 @@
         <v>68.0</v>
       </c>
       <c r="C32" t="n" s="1">
-        <v>1155.0</v>
+        <v>1299.0</v>
       </c>
       <c r="D32" t="n" s="1">
         <v>86.0</v>
@@ -2964,7 +2964,7 @@
         <v>66.0</v>
       </c>
       <c r="C33" t="n" s="1">
-        <v>932.0</v>
+        <v>887.0</v>
       </c>
       <c r="D33" t="n" s="1">
         <v>75.0</v>
@@ -3032,7 +3032,7 @@
         <v>69.0</v>
       </c>
       <c r="C34" t="n" s="1">
-        <v>1179.0</v>
+        <v>1261.0</v>
       </c>
       <c r="D34" t="n" s="1">
         <v>87.0</v>
@@ -3100,7 +3100,7 @@
         <v>64.0</v>
       </c>
       <c r="C35" t="n" s="1">
-        <v>822.0</v>
+        <v>1250.0</v>
       </c>
       <c r="D35" t="n" s="1">
         <v>76.0</v>
@@ -3168,7 +3168,7 @@
         <v>60.0</v>
       </c>
       <c r="C36" t="n" s="1">
-        <v>790.0</v>
+        <v>967.0</v>
       </c>
       <c r="D36" t="n" s="1">
         <v>79.0</v>
@@ -3236,7 +3236,7 @@
         <v>69.0</v>
       </c>
       <c r="C37" t="n" s="1">
-        <v>1277.0</v>
+        <v>1522.0</v>
       </c>
       <c r="D37" t="n" s="1">
         <v>88.0</v>
@@ -3304,7 +3304,7 @@
         <v>61.0</v>
       </c>
       <c r="C38" t="n" s="1">
-        <v>618.0</v>
+        <v>628.0</v>
       </c>
       <c r="D38" t="n" s="1">
         <v>70.0</v>
@@ -3372,7 +3372,7 @@
         <v>56.0</v>
       </c>
       <c r="C39" t="n" s="1">
-        <v>394.0</v>
+        <v>502.0</v>
       </c>
       <c r="D39" t="n" s="1">
         <v>55.0</v>
@@ -3440,7 +3440,7 @@
         <v>60.0</v>
       </c>
       <c r="C40" t="n" s="1">
-        <v>990.0</v>
+        <v>1065.0</v>
       </c>
       <c r="D40" t="n" s="1">
         <v>73.0</v>
@@ -3473,13 +3473,13 @@
         <v>100.0</v>
       </c>
       <c r="N40" t="n" s="1">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="O40" t="n" s="1">
         <v>86.0</v>
       </c>
       <c r="P40" t="n" s="1">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="Q40" t="n" s="1">
         <v>21.0</v>
@@ -3508,7 +3508,7 @@
         <v>59.0</v>
       </c>
       <c r="C41" t="n" s="1">
-        <v>441.0</v>
+        <v>528.0</v>
       </c>
       <c r="D41" t="n" s="1">
         <v>70.0</v>
@@ -3576,7 +3576,7 @@
         <v>60.0</v>
       </c>
       <c r="C42" t="n" s="1">
-        <v>525.0</v>
+        <v>626.0</v>
       </c>
       <c r="D42" t="n" s="1">
         <v>70.0</v>
@@ -3644,7 +3644,7 @@
         <v>61.0</v>
       </c>
       <c r="C43" t="n" s="1">
-        <v>506.0</v>
+        <v>763.0</v>
       </c>
       <c r="D43" t="n" s="1">
         <v>70.0</v>
@@ -3712,7 +3712,7 @@
         <v>55.0</v>
       </c>
       <c r="C44" t="n" s="1">
-        <v>1812.0</v>
+        <v>1613.0</v>
       </c>
       <c r="D44" t="n" s="1">
         <v>69.0</v>
@@ -3780,7 +3780,7 @@
         <v>48.0</v>
       </c>
       <c r="C45" t="n" s="1">
-        <v>7139.0</v>
+        <v>3728.0</v>
       </c>
       <c r="D45" t="n" s="1">
         <v>62.0</v>
@@ -3848,7 +3848,7 @@
         <v>59.0</v>
       </c>
       <c r="C46" t="n" s="1">
-        <v>1144.0</v>
+        <v>1241.0</v>
       </c>
       <c r="D46" t="n" s="1">
         <v>66.0</v>
@@ -3916,7 +3916,7 @@
         <v>57.0</v>
       </c>
       <c r="C47" t="n" s="1">
-        <v>1201.0</v>
+        <v>1469.0</v>
       </c>
       <c r="D47" t="n" s="1">
         <v>76.0</v>
@@ -3984,7 +3984,7 @@
         <v>61.0</v>
       </c>
       <c r="C48" t="n" s="1">
-        <v>1255.0</v>
+        <v>825.0</v>
       </c>
       <c r="D48" t="n" s="1">
         <v>70.0</v>
@@ -4052,7 +4052,7 @@
         <v>57.0</v>
       </c>
       <c r="C49" t="n" s="1">
-        <v>830.0</v>
+        <v>1197.0</v>
       </c>
       <c r="D49" t="n" s="1">
         <v>76.0</v>
@@ -4120,7 +4120,7 @@
         <v>66.0</v>
       </c>
       <c r="C50" t="n" s="1">
-        <v>1764.0</v>
+        <v>1596.0</v>
       </c>
       <c r="D50" t="n" s="1">
         <v>76.0</v>
@@ -4188,7 +4188,7 @@
         <v>58.0</v>
       </c>
       <c r="C51" t="n" s="1">
-        <v>388.0</v>
+        <v>595.0</v>
       </c>
       <c r="D51" t="n" s="1">
         <v>69.0</v>
@@ -4256,7 +4256,7 @@
         <v>57.0</v>
       </c>
       <c r="C52" t="n" s="1">
-        <v>1561.0</v>
+        <v>1607.0</v>
       </c>
       <c r="D52" t="n" s="1">
         <v>76.0</v>
@@ -4324,7 +4324,7 @@
         <v>60.0</v>
       </c>
       <c r="C53" t="n" s="1">
-        <v>1273.0</v>
+        <v>1370.0</v>
       </c>
       <c r="D53" t="n" s="1">
         <v>75.0</v>
@@ -4392,7 +4392,7 @@
         <v>58.0</v>
       </c>
       <c r="C54" t="n" s="1">
-        <v>361.0</v>
+        <v>315.0</v>
       </c>
       <c r="D54" t="n" s="1">
         <v>61.0</v>
@@ -4460,7 +4460,7 @@
         <v>54.0</v>
       </c>
       <c r="C55" t="n" s="1">
-        <v>289.0</v>
+        <v>475.0</v>
       </c>
       <c r="D55" t="n" s="1">
         <v>63.0</v>
@@ -4528,7 +4528,7 @@
         <v>56.0</v>
       </c>
       <c r="C56" t="n" s="1">
-        <v>1800.0</v>
+        <v>1890.0</v>
       </c>
       <c r="D56" t="n" s="1">
         <v>67.0</v>
@@ -4596,7 +4596,7 @@
         <v>53.0</v>
       </c>
       <c r="C57" t="n" s="1">
-        <v>6240.0</v>
+        <v>6447.0</v>
       </c>
       <c r="D57" t="n" s="1">
         <v>64.0</v>
@@ -4664,7 +4664,7 @@
         <v>60.0</v>
       </c>
       <c r="C58" t="n" s="1">
-        <v>734.0</v>
+        <v>1455.0</v>
       </c>
       <c r="D58" t="n" s="1">
         <v>66.0</v>
@@ -4732,7 +4732,7 @@
         <v>60.0</v>
       </c>
       <c r="C59" t="n" s="1">
-        <v>643.0</v>
+        <v>824.0</v>
       </c>
       <c r="D59" t="n" s="1">
         <v>70.0</v>
@@ -4800,7 +4800,7 @@
         <v>64.0</v>
       </c>
       <c r="C60" t="n" s="1">
-        <v>1141.0</v>
+        <v>1241.0</v>
       </c>
       <c r="D60" t="n" s="1">
         <v>75.0</v>
@@ -4868,7 +4868,7 @@
         <v>51.0</v>
       </c>
       <c r="C61" t="n" s="1">
-        <v>800.0</v>
+        <v>1088.0</v>
       </c>
       <c r="D61" t="n" s="1">
         <v>69.0</v>
@@ -4936,7 +4936,7 @@
         <v>53.0</v>
       </c>
       <c r="C62" t="n" s="1">
-        <v>360.0</v>
+        <v>527.0</v>
       </c>
       <c r="D62" t="n" s="1">
         <v>55.0</v>
@@ -5004,7 +5004,7 @@
         <v>69.0</v>
       </c>
       <c r="C63" t="n" s="1">
-        <v>1201.0</v>
+        <v>1188.0</v>
       </c>
       <c r="D63" t="n" s="1">
         <v>88.0</v>
@@ -5069,10 +5069,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C64" t="n" s="1">
-        <v>814.0</v>
+        <v>771.0</v>
       </c>
       <c r="D64" t="n" s="1">
         <v>70.0</v>
@@ -5105,13 +5105,13 @@
         <v>100.0</v>
       </c>
       <c r="N64" t="n" s="1">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="O64" t="n" s="1">
         <v>79.0</v>
       </c>
       <c r="P64" t="n" s="1">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="Q64" t="n" s="1">
         <v>21.0</v>
@@ -5140,7 +5140,7 @@
         <v>62.0</v>
       </c>
       <c r="C65" t="n" s="1">
-        <v>939.0</v>
+        <v>610.0</v>
       </c>
       <c r="D65" t="n" s="1">
         <v>75.0</v>
@@ -5208,7 +5208,7 @@
         <v>67.0</v>
       </c>
       <c r="C66" t="n" s="1">
-        <v>980.0</v>
+        <v>1082.0</v>
       </c>
       <c r="D66" t="n" s="1">
         <v>87.0</v>
@@ -5276,7 +5276,7 @@
         <v>58.0</v>
       </c>
       <c r="C67" t="n" s="1">
-        <v>408.0</v>
+        <v>385.0</v>
       </c>
       <c r="D67" t="n" s="1">
         <v>62.0</v>
@@ -5344,7 +5344,7 @@
         <v>53.0</v>
       </c>
       <c r="C68" t="n" s="1">
-        <v>657.0</v>
+        <v>631.0</v>
       </c>
       <c r="D68" t="n" s="1">
         <v>62.0</v>
@@ -5412,7 +5412,7 @@
         <v>63.0</v>
       </c>
       <c r="C69" t="n" s="1">
-        <v>465.0</v>
+        <v>594.0</v>
       </c>
       <c r="D69" t="n" s="1">
         <v>70.0</v>
@@ -5480,7 +5480,7 @@
         <v>70.0</v>
       </c>
       <c r="C70" t="n" s="1">
-        <v>1193.0</v>
+        <v>1382.0</v>
       </c>
       <c r="D70" t="n" s="1">
         <v>88.0</v>
@@ -5548,7 +5548,7 @@
         <v>54.0</v>
       </c>
       <c r="C71" t="n" s="1">
-        <v>732.0</v>
+        <v>866.0</v>
       </c>
       <c r="D71" t="n" s="1">
         <v>63.0</v>
@@ -5616,7 +5616,7 @@
         <v>61.0</v>
       </c>
       <c r="C72" t="n" s="1">
-        <v>606.0</v>
+        <v>526.0</v>
       </c>
       <c r="D72" t="n" s="1">
         <v>62.0</v>
@@ -5684,7 +5684,7 @@
         <v>51.0</v>
       </c>
       <c r="C73" t="n" s="1">
-        <v>128.0</v>
+        <v>271.0</v>
       </c>
       <c r="D73" t="n" s="1">
         <v>66.0</v>
@@ -5752,7 +5752,7 @@
         <v>57.0</v>
       </c>
       <c r="C74" t="n" s="1">
-        <v>1716.0</v>
+        <v>1317.0</v>
       </c>
       <c r="D74" t="n" s="1">
         <v>75.0</v>
@@ -5820,7 +5820,7 @@
         <v>55.0</v>
       </c>
       <c r="C75" t="n" s="1">
-        <v>1525.0</v>
+        <v>1639.0</v>
       </c>
       <c r="D75" t="n" s="1">
         <v>69.0</v>
@@ -5888,7 +5888,7 @@
         <v>59.0</v>
       </c>
       <c r="C76" t="n" s="1">
-        <v>816.0</v>
+        <v>652.0</v>
       </c>
       <c r="D76" t="n" s="1">
         <v>69.0</v>
@@ -5956,7 +5956,7 @@
         <v>61.0</v>
       </c>
       <c r="C77" t="n" s="1">
-        <v>562.0</v>
+        <v>673.0</v>
       </c>
       <c r="D77" t="n" s="1">
         <v>66.0</v>
@@ -6024,7 +6024,7 @@
         <v>57.0</v>
       </c>
       <c r="C78" t="n" s="1">
-        <v>454.0</v>
+        <v>543.0</v>
       </c>
       <c r="D78" t="n" s="1">
         <v>59.0</v>
@@ -6092,7 +6092,7 @@
         <v>53.0</v>
       </c>
       <c r="C79" t="n" s="1">
-        <v>866.0</v>
+        <v>1050.0</v>
       </c>
       <c r="D79" t="n" s="1">
         <v>73.0</v>
@@ -6160,7 +6160,7 @@
         <v>63.0</v>
       </c>
       <c r="C80" t="n" s="1">
-        <v>1070.0</v>
+        <v>1138.0</v>
       </c>
       <c r="D80" t="n" s="1">
         <v>74.0</v>
@@ -6228,7 +6228,7 @@
         <v>64.0</v>
       </c>
       <c r="C81" t="n" s="1">
-        <v>650.0</v>
+        <v>996.0</v>
       </c>
       <c r="D81" t="n" s="1">
         <v>76.0</v>
@@ -6296,7 +6296,7 @@
         <v>62.0</v>
       </c>
       <c r="C82" t="n" s="1">
-        <v>544.0</v>
+        <v>753.0</v>
       </c>
       <c r="D82" t="n" s="1">
         <v>70.0</v>
@@ -6364,7 +6364,7 @@
         <v>62.0</v>
       </c>
       <c r="C83" t="n" s="1">
-        <v>1112.0</v>
+        <v>844.0</v>
       </c>
       <c r="D83" t="n" s="1">
         <v>73.0</v>
@@ -6432,7 +6432,7 @@
         <v>64.0</v>
       </c>
       <c r="C84" t="n" s="1">
-        <v>963.0</v>
+        <v>1057.0</v>
       </c>
       <c r="D84" t="n" s="1">
         <v>80.0</v>
@@ -6465,13 +6465,13 @@
         <v>100.0</v>
       </c>
       <c r="N84" t="n" s="1">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="O84" t="n" s="1">
         <v>86.0</v>
       </c>
       <c r="P84" t="n" s="1">
-        <v>46.0</v>
+        <v>54.0</v>
       </c>
       <c r="Q84" t="n" s="1">
         <v>21.0</v>
@@ -6497,10 +6497,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n" s="1">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C85" t="n" s="1">
-        <v>1246.0</v>
+        <v>1534.0</v>
       </c>
       <c r="D85" t="n" s="1">
         <v>71.0</v>
@@ -6533,13 +6533,13 @@
         <v>100.0</v>
       </c>
       <c r="N85" t="n" s="1">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="O85" t="n" s="1">
         <v>79.0</v>
       </c>
       <c r="P85" t="n" s="1">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="Q85" t="n" s="1">
         <v>21.0</v>
@@ -6568,7 +6568,7 @@
         <v>63.0</v>
       </c>
       <c r="C86" t="n" s="1">
-        <v>804.0</v>
+        <v>1070.0</v>
       </c>
       <c r="D86" t="n" s="1">
         <v>74.0</v>
@@ -6636,7 +6636,7 @@
         <v>62.0</v>
       </c>
       <c r="C87" t="n" s="1">
-        <v>604.0</v>
+        <v>831.0</v>
       </c>
       <c r="D87" t="n" s="1">
         <v>70.0</v>
@@ -6701,10 +6701,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n" s="1">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C88" t="n" s="1">
-        <v>1605.0</v>
+        <v>1844.0</v>
       </c>
       <c r="D88" t="n" s="1">
         <v>69.0</v>
@@ -6737,13 +6737,13 @@
         <v>100.0</v>
       </c>
       <c r="N88" t="n" s="1">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="O88" t="n" s="1">
         <v>86.0</v>
       </c>
       <c r="P88" t="n" s="1">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="Q88" t="n" s="1">
         <v>21.0</v>
@@ -6772,7 +6772,7 @@
         <v>65.0</v>
       </c>
       <c r="C89" t="n" s="1">
-        <v>1027.0</v>
+        <v>966.0</v>
       </c>
       <c r="D89" t="n" s="1">
         <v>75.0</v>
@@ -6840,7 +6840,7 @@
         <v>49.0</v>
       </c>
       <c r="C90" t="n" s="1">
-        <v>372.0</v>
+        <v>364.0</v>
       </c>
       <c r="D90" t="n" s="1">
         <v>62.0</v>
@@ -6905,10 +6905,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n" s="1">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C91" t="n" s="1">
-        <v>810.0</v>
+        <v>867.0</v>
       </c>
       <c r="D91" t="n" s="1">
         <v>68.0</v>
@@ -6941,13 +6941,13 @@
         <v>100.0</v>
       </c>
       <c r="N91" t="n" s="1">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="O91" t="n" s="1">
         <v>86.0</v>
       </c>
       <c r="P91" t="n" s="1">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="Q91" t="n" s="1">
         <v>21.0</v>
@@ -6976,7 +6976,7 @@
         <v>55.0</v>
       </c>
       <c r="C92" t="n" s="1">
-        <v>412.0</v>
+        <v>1303.0</v>
       </c>
       <c r="D92" t="n" s="1">
         <v>76.0</v>
@@ -7044,7 +7044,7 @@
         <v>62.0</v>
       </c>
       <c r="C93" t="n" s="1">
-        <v>1312.0</v>
+        <v>1359.0</v>
       </c>
       <c r="D93" t="n" s="1">
         <v>69.0</v>
@@ -7077,13 +7077,13 @@
         <v>100.0</v>
       </c>
       <c r="N93" t="n" s="1">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="O93" t="n" s="1">
         <v>86.0</v>
       </c>
       <c r="P93" t="n" s="1">
-        <v>37.0</v>
+        <v>48.0</v>
       </c>
       <c r="Q93" t="n" s="1">
         <v>21.0</v>
@@ -7109,10 +7109,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n" s="1">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C94" t="n" s="1">
-        <v>2325.0</v>
+        <v>3720.0</v>
       </c>
       <c r="D94" t="n" s="1">
         <v>72.0</v>
@@ -7145,13 +7145,13 @@
         <v>100.0</v>
       </c>
       <c r="N94" t="n" s="1">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="O94" t="n" s="1">
         <v>86.0</v>
       </c>
       <c r="P94" t="n" s="1">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="Q94" t="n" s="1">
         <v>21.0</v>
@@ -7180,7 +7180,7 @@
         <v>63.0</v>
       </c>
       <c r="C95" t="n" s="1">
-        <v>588.0</v>
+        <v>799.0</v>
       </c>
       <c r="D95" t="n" s="1">
         <v>70.0</v>
@@ -7248,7 +7248,7 @@
         <v>60.0</v>
       </c>
       <c r="C96" t="n" s="1">
-        <v>1778.0</v>
+        <v>1938.0</v>
       </c>
       <c r="D96" t="n" s="1">
         <v>70.0</v>
@@ -7281,13 +7281,13 @@
         <v>100.0</v>
       </c>
       <c r="N96" t="n" s="1">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="O96" t="n" s="1">
         <v>79.0</v>
       </c>
       <c r="P96" t="n" s="1">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="Q96" t="n" s="1">
         <v>21.0</v>
@@ -7316,7 +7316,7 @@
         <v>65.0</v>
       </c>
       <c r="C97" t="n" s="1">
-        <v>535.0</v>
+        <v>615.0</v>
       </c>
       <c r="D97" t="n" s="1">
         <v>70.0</v>
@@ -7384,7 +7384,7 @@
         <v>65.0</v>
       </c>
       <c r="C98" t="n" s="1">
-        <v>1297.0</v>
+        <v>1367.0</v>
       </c>
       <c r="D98" t="n" s="1">
         <v>79.0</v>
@@ -7452,7 +7452,7 @@
         <v>57.0</v>
       </c>
       <c r="C99" t="n" s="1">
-        <v>990.0</v>
+        <v>925.0</v>
       </c>
       <c r="D99" t="n" s="1">
         <v>66.0</v>
@@ -7520,7 +7520,7 @@
         <v>52.0</v>
       </c>
       <c r="C100" t="n" s="1">
-        <v>1142.0</v>
+        <v>862.0</v>
       </c>
       <c r="D100" t="n" s="1">
         <v>61.0</v>
@@ -7588,7 +7588,7 @@
         <v>61.0</v>
       </c>
       <c r="C101" t="n" s="1">
-        <v>696.0</v>
+        <v>731.0</v>
       </c>
       <c r="D101" t="n" s="1">
         <v>70.0</v>
@@ -7656,7 +7656,7 @@
         <v>56.0</v>
       </c>
       <c r="C102" t="n" s="1">
-        <v>346.0</v>
+        <v>427.0</v>
       </c>
       <c r="D102" t="n" s="1">
         <v>68.0</v>
@@ -7724,7 +7724,7 @@
         <v>53.0</v>
       </c>
       <c r="C103" t="n" s="1">
-        <v>230.0</v>
+        <v>386.0</v>
       </c>
       <c r="D103" t="n" s="1">
         <v>64.0</v>
@@ -7792,7 +7792,7 @@
         <v>42.0</v>
       </c>
       <c r="C104" t="n" s="1">
-        <v>135.0</v>
+        <v>218.0</v>
       </c>
       <c r="D104" t="n" s="1">
         <v>50.0</v>
@@ -7857,10 +7857,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n" s="1">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C105" t="n" s="1">
-        <v>1347.0</v>
+        <v>617.0</v>
       </c>
       <c r="D105" t="n" s="1">
         <v>64.0</v>
@@ -7893,13 +7893,13 @@
         <v>100.0</v>
       </c>
       <c r="N105" t="n" s="1">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="O105" t="n" s="1">
         <v>86.0</v>
       </c>
       <c r="P105" t="n" s="1">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="Q105" t="n" s="1">
         <v>21.0</v>
@@ -7928,7 +7928,7 @@
         <v>60.0</v>
       </c>
       <c r="C106" t="n" s="1">
-        <v>614.0</v>
+        <v>681.0</v>
       </c>
       <c r="D106" t="n" s="1">
         <v>71.0</v>
@@ -7996,7 +7996,7 @@
         <v>62.0</v>
       </c>
       <c r="C107" t="n" s="1">
-        <v>1124.0</v>
+        <v>1284.0</v>
       </c>
       <c r="D107" t="n" s="1">
         <v>73.0</v>
@@ -8064,7 +8064,7 @@
         <v>62.0</v>
       </c>
       <c r="C108" t="n" s="1">
-        <v>1668.0</v>
+        <v>1848.0</v>
       </c>
       <c r="D108" t="n" s="1">
         <v>70.0</v>
@@ -8132,7 +8132,7 @@
         <v>67.0</v>
       </c>
       <c r="C109" t="n" s="1">
-        <v>1300.0</v>
+        <v>1380.0</v>
       </c>
       <c r="D109" t="n" s="1">
         <v>88.0</v>
@@ -8200,7 +8200,7 @@
         <v>60.0</v>
       </c>
       <c r="C110" t="n" s="1">
-        <v>604.0</v>
+        <v>761.0</v>
       </c>
       <c r="D110" t="n" s="1">
         <v>70.0</v>
@@ -8268,7 +8268,7 @@
         <v>65.0</v>
       </c>
       <c r="C111" t="n" s="1">
-        <v>958.0</v>
+        <v>797.0</v>
       </c>
       <c r="D111" t="n" s="1">
         <v>76.0</v>
@@ -8336,7 +8336,7 @@
         <v>55.0</v>
       </c>
       <c r="C112" t="n" s="1">
-        <v>1081.0</v>
+        <v>970.0</v>
       </c>
       <c r="D112" t="n" s="1">
         <v>76.0</v>
@@ -8404,7 +8404,7 @@
         <v>60.0</v>
       </c>
       <c r="C113" t="n" s="1">
-        <v>581.0</v>
+        <v>745.0</v>
       </c>
       <c r="D113" t="n" s="1">
         <v>76.0</v>
@@ -8472,7 +8472,7 @@
         <v>59.0</v>
       </c>
       <c r="C114" t="n" s="1">
-        <v>1345.0</v>
+        <v>1584.0</v>
       </c>
       <c r="D114" t="n" s="1">
         <v>69.0</v>
@@ -8540,7 +8540,7 @@
         <v>62.0</v>
       </c>
       <c r="C115" t="n" s="1">
-        <v>386.0</v>
+        <v>499.0</v>
       </c>
       <c r="D115" t="n" s="1">
         <v>68.0</v>
@@ -8608,7 +8608,7 @@
         <v>55.0</v>
       </c>
       <c r="C116" t="n" s="1">
-        <v>503.0</v>
+        <v>638.0</v>
       </c>
       <c r="D116" t="n" s="1">
         <v>65.0</v>
@@ -8676,7 +8676,7 @@
         <v>64.0</v>
       </c>
       <c r="C117" t="n" s="1">
-        <v>539.0</v>
+        <v>631.0</v>
       </c>
       <c r="D117" t="n" s="1">
         <v>70.0</v>
@@ -8744,7 +8744,7 @@
         <v>64.0</v>
       </c>
       <c r="C118" t="n" s="1">
-        <v>504.0</v>
+        <v>653.0</v>
       </c>
       <c r="D118" t="n" s="1">
         <v>70.0</v>
@@ -8812,7 +8812,7 @@
         <v>57.0</v>
       </c>
       <c r="C119" t="n" s="1">
-        <v>453.0</v>
+        <v>582.0</v>
       </c>
       <c r="D119" t="n" s="1">
         <v>76.0</v>
@@ -8880,7 +8880,7 @@
         <v>67.0</v>
       </c>
       <c r="C120" t="n" s="1">
-        <v>1028.0</v>
+        <v>1105.0</v>
       </c>
       <c r="D120" t="n" s="1">
         <v>88.0</v>
@@ -8913,13 +8913,13 @@
         <v>100.0</v>
       </c>
       <c r="N120" t="n" s="1">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="O120" t="n" s="1">
         <v>86.0</v>
       </c>
       <c r="P120" t="n" s="1">
-        <v>31.0</v>
+        <v>41.0</v>
       </c>
       <c r="Q120" t="n" s="1">
         <v>21.0</v>
@@ -8948,7 +8948,7 @@
         <v>67.0</v>
       </c>
       <c r="C121" t="n" s="1">
-        <v>1017.0</v>
+        <v>1077.0</v>
       </c>
       <c r="D121" t="n" s="1">
         <v>78.0</v>
@@ -9016,7 +9016,7 @@
         <v>60.0</v>
       </c>
       <c r="C122" t="n" s="1">
-        <v>595.0</v>
+        <v>707.0</v>
       </c>
       <c r="D122" t="n" s="1">
         <v>64.0</v>
@@ -9049,13 +9049,13 @@
         <v>100.0</v>
       </c>
       <c r="N122" t="n" s="1">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="O122" t="n" s="1">
         <v>86.0</v>
       </c>
       <c r="P122" t="n" s="1">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="Q122" t="n" s="1">
         <v>21.0</v>
@@ -9081,10 +9081,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n" s="1">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="C123" t="n" s="1">
-        <v>116.0</v>
+        <v>329.0</v>
       </c>
       <c r="D123" t="n" s="1">
         <v>61.0</v>
@@ -9117,13 +9117,13 @@
         <v>100.0</v>
       </c>
       <c r="N123" t="n" s="1">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="O123" t="n" s="1">
         <v>86.0</v>
       </c>
       <c r="P123" t="n" s="1">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="Q123" t="n" s="1">
         <v>21.0</v>
@@ -9152,7 +9152,7 @@
         <v>54.0</v>
       </c>
       <c r="C124" t="n" s="1">
-        <v>6380.0</v>
+        <v>6382.0</v>
       </c>
       <c r="D124" t="n" s="1">
         <v>63.0</v>
@@ -9220,7 +9220,7 @@
         <v>55.0</v>
       </c>
       <c r="C125" t="n" s="1">
-        <v>467.0</v>
+        <v>756.0</v>
       </c>
       <c r="D125" t="n" s="1">
         <v>71.0</v>
@@ -9288,7 +9288,7 @@
         <v>63.0</v>
       </c>
       <c r="C126" t="n" s="1">
-        <v>1600.0</v>
+        <v>1435.0</v>
       </c>
       <c r="D126" t="n" s="1">
         <v>69.0</v>
@@ -9356,7 +9356,7 @@
         <v>60.0</v>
       </c>
       <c r="C127" t="n" s="1">
-        <v>616.0</v>
+        <v>721.0</v>
       </c>
       <c r="D127" t="n" s="1">
         <v>70.0</v>
@@ -9424,7 +9424,7 @@
         <v>68.0</v>
       </c>
       <c r="C128" t="n" s="1">
-        <v>1124.0</v>
+        <v>1275.0</v>
       </c>
       <c r="D128" t="n" s="1">
         <v>87.0</v>
@@ -9492,7 +9492,7 @@
         <v>60.0</v>
       </c>
       <c r="C129" t="n" s="1">
-        <v>910.0</v>
+        <v>1204.0</v>
       </c>
       <c r="D129" t="n" s="1">
         <v>80.0</v>
@@ -9560,7 +9560,7 @@
         <v>45.0</v>
       </c>
       <c r="C130" t="n" s="1">
-        <v>127.0</v>
+        <v>278.0</v>
       </c>
       <c r="D130" t="n" s="1">
         <v>52.0</v>
@@ -9628,7 +9628,7 @@
         <v>68.0</v>
       </c>
       <c r="C131" t="n" s="1">
-        <v>1496.0</v>
+        <v>1468.0</v>
       </c>
       <c r="D131" t="n" s="1">
         <v>87.0</v>
@@ -9696,7 +9696,7 @@
         <v>64.0</v>
       </c>
       <c r="C132" t="n" s="1">
-        <v>882.0</v>
+        <v>1068.0</v>
       </c>
       <c r="D132" t="n" s="1">
         <v>79.0</v>
@@ -9764,7 +9764,7 @@
         <v>65.0</v>
       </c>
       <c r="C133" t="n" s="1">
-        <v>691.0</v>
+        <v>850.0</v>
       </c>
       <c r="D133" t="n" s="1">
         <v>70.0</v>
@@ -9832,7 +9832,7 @@
         <v>50.0</v>
       </c>
       <c r="C134" t="n" s="1">
-        <v>340.0</v>
+        <v>519.0</v>
       </c>
       <c r="D134" t="n" s="1">
         <v>61.0</v>
@@ -9900,7 +9900,7 @@
         <v>68.0</v>
       </c>
       <c r="C135" t="n" s="1">
-        <v>1141.0</v>
+        <v>1270.0</v>
       </c>
       <c r="D135" t="n" s="1">
         <v>88.0</v>
@@ -9968,7 +9968,7 @@
         <v>61.0</v>
       </c>
       <c r="C136" t="n" s="1">
-        <v>522.0</v>
+        <v>710.0</v>
       </c>
       <c r="D136" t="n" s="1">
         <v>70.0</v>
@@ -10036,7 +10036,7 @@
         <v>67.0</v>
       </c>
       <c r="C137" t="n" s="1">
-        <v>1122.0</v>
+        <v>1230.0</v>
       </c>
       <c r="D137" t="n" s="1">
         <v>83.0</v>
@@ -11080,7 +11080,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n" s="4">
-        <v>70.0</v>
+        <v>71.0</v>
       </c>
       <c r="C4" t="n" s="4">
         <v>88.0</v>
@@ -11191,7 +11191,7 @@
         <v>4.0</v>
       </c>
       <c r="AM4" t="n" s="4">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="AN4" t="n" s="4">
         <v>86.0</v>
@@ -11212,7 +11212,7 @@
         <v>0.0</v>
       </c>
       <c r="AT4" t="n" s="4">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="AU4" t="n" s="4">
         <v>5.0</v>
@@ -11233,7 +11233,7 @@
         <v>0.0</v>
       </c>
       <c r="BA4" t="n" s="4">
-        <v>0.0</v>
+        <v>3.5</v>
       </c>
       <c r="BB4" t="n" s="4">
         <v>21.0</v>
@@ -12816,7 +12816,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C11" t="n" s="4">
         <v>69.0</v>
@@ -12927,7 +12927,7 @@
         <v>4.0</v>
       </c>
       <c r="AM11" t="n" s="4">
-        <v>41.0</v>
+        <v>44.0</v>
       </c>
       <c r="AN11" t="n" s="4">
         <v>63.0</v>
@@ -12948,7 +12948,7 @@
         <v>0.0</v>
       </c>
       <c r="AT11" t="n" s="4">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="AU11" t="n" s="4">
         <v>5.0</v>
@@ -12969,7 +12969,7 @@
         <v>0.0</v>
       </c>
       <c r="BA11" t="n" s="4">
-        <v>0.0</v>
+        <v>3.5</v>
       </c>
       <c r="BB11" t="n" s="4">
         <v>21.0</v>
@@ -14800,7 +14800,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n" s="4">
-        <v>56.0</v>
+        <v>57.0</v>
       </c>
       <c r="C19" t="n" s="4">
         <v>66.0</v>
@@ -14911,7 +14911,7 @@
         <v>4.0</v>
       </c>
       <c r="AM19" t="n" s="4">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="AN19" t="n" s="4">
         <v>79.0</v>
@@ -14932,7 +14932,7 @@
         <v>0.0</v>
       </c>
       <c r="AT19" t="n" s="4">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="AU19" t="n" s="4">
         <v>5.0</v>
@@ -14953,7 +14953,7 @@
         <v>0.0</v>
       </c>
       <c r="BA19" t="n" s="4">
-        <v>0.0</v>
+        <v>3.75</v>
       </c>
       <c r="BB19" t="n" s="4">
         <v>21.0</v>
@@ -20119,7 +20119,7 @@
         <v>4.0</v>
       </c>
       <c r="AM40" t="n" s="4">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="AN40" t="n" s="4">
         <v>86.0</v>
@@ -20140,7 +20140,7 @@
         <v>0.0</v>
       </c>
       <c r="AT40" t="n" s="4">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="AU40" t="n" s="4">
         <v>5.0</v>
@@ -20161,7 +20161,7 @@
         <v>0.0</v>
       </c>
       <c r="BA40" t="n" s="4">
-        <v>0.0</v>
+        <v>3.75</v>
       </c>
       <c r="BB40" t="n" s="4">
         <v>21.0</v>
@@ -25960,7 +25960,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C64" t="n" s="4">
         <v>70.0</v>
@@ -26071,7 +26071,7 @@
         <v>4.0</v>
       </c>
       <c r="AM64" t="n" s="4">
-        <v>43.0</v>
+        <v>46.0</v>
       </c>
       <c r="AN64" t="n" s="4">
         <v>79.0</v>
@@ -26092,7 +26092,7 @@
         <v>0.0</v>
       </c>
       <c r="AT64" t="n" s="4">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="AU64" t="n" s="4">
         <v>0.0</v>
@@ -26113,7 +26113,7 @@
         <v>0.0</v>
       </c>
       <c r="BA64" t="n" s="4">
-        <v>0.0</v>
+        <v>3.75</v>
       </c>
       <c r="BB64" t="n" s="4">
         <v>21.0</v>
@@ -31031,7 +31031,7 @@
         <v>4.0</v>
       </c>
       <c r="AM84" t="n" s="4">
-        <v>55.0</v>
+        <v>57.0</v>
       </c>
       <c r="AN84" t="n" s="4">
         <v>86.0</v>
@@ -31052,7 +31052,7 @@
         <v>0.0</v>
       </c>
       <c r="AT84" t="n" s="4">
-        <v>46.0</v>
+        <v>54.0</v>
       </c>
       <c r="AU84" t="n" s="4">
         <v>5.0</v>
@@ -31073,7 +31073,7 @@
         <v>0.0</v>
       </c>
       <c r="BA84" t="n" s="4">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="BB84" t="n" s="4">
         <v>21.0</v>
@@ -31168,7 +31168,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n" s="4">
-        <v>63.0</v>
+        <v>64.0</v>
       </c>
       <c r="C85" t="n" s="4">
         <v>71.0</v>
@@ -31279,7 +31279,7 @@
         <v>4.0</v>
       </c>
       <c r="AM85" t="n" s="4">
-        <v>47.0</v>
+        <v>51.0</v>
       </c>
       <c r="AN85" t="n" s="4">
         <v>79.0</v>
@@ -31300,7 +31300,7 @@
         <v>0.0</v>
       </c>
       <c r="AT85" t="n" s="4">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="AU85" t="n" s="4">
         <v>5.0</v>
@@ -31321,7 +31321,7 @@
         <v>0.0</v>
       </c>
       <c r="BA85" t="n" s="4">
-        <v>0.0</v>
+        <v>3.75</v>
       </c>
       <c r="BB85" t="n" s="4">
         <v>21.0</v>
@@ -31912,7 +31912,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n" s="4">
-        <v>57.0</v>
+        <v>58.0</v>
       </c>
       <c r="C88" t="n" s="4">
         <v>69.0</v>
@@ -32023,7 +32023,7 @@
         <v>4.0</v>
       </c>
       <c r="AM88" t="n" s="4">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="AN88" t="n" s="4">
         <v>86.0</v>
@@ -32044,7 +32044,7 @@
         <v>0.0</v>
       </c>
       <c r="AT88" t="n" s="4">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="AU88" t="n" s="4">
         <v>5.0</v>
@@ -32065,7 +32065,7 @@
         <v>0.0</v>
       </c>
       <c r="BA88" t="n" s="4">
-        <v>0.0</v>
+        <v>3.75</v>
       </c>
       <c r="BB88" t="n" s="4">
         <v>21.0</v>
@@ -32656,7 +32656,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n" s="4">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C91" t="n" s="4">
         <v>68.0</v>
@@ -32767,7 +32767,7 @@
         <v>4.0</v>
       </c>
       <c r="AM91" t="n" s="4">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="AN91" t="n" s="4">
         <v>86.0</v>
@@ -32788,7 +32788,7 @@
         <v>0.0</v>
       </c>
       <c r="AT91" t="n" s="4">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="AU91" t="n" s="4">
         <v>5.0</v>
@@ -32809,7 +32809,7 @@
         <v>0.0</v>
       </c>
       <c r="BA91" t="n" s="4">
-        <v>0.0</v>
+        <v>3.75</v>
       </c>
       <c r="BB91" t="n" s="4">
         <v>21.0</v>
@@ -33263,7 +33263,7 @@
         <v>4.0</v>
       </c>
       <c r="AM93" t="n" s="4">
-        <v>52.0</v>
+        <v>55.0</v>
       </c>
       <c r="AN93" t="n" s="4">
         <v>86.0</v>
@@ -33284,7 +33284,7 @@
         <v>0.0</v>
       </c>
       <c r="AT93" t="n" s="4">
-        <v>37.0</v>
+        <v>48.0</v>
       </c>
       <c r="AU93" t="n" s="4">
         <v>5.0</v>
@@ -33305,7 +33305,7 @@
         <v>2.0</v>
       </c>
       <c r="BA93" t="n" s="4">
-        <v>0.0</v>
+        <v>3.44</v>
       </c>
       <c r="BB93" t="n" s="4">
         <v>21.0</v>
@@ -33400,7 +33400,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n" s="4">
-        <v>59.0</v>
+        <v>60.0</v>
       </c>
       <c r="C94" t="n" s="4">
         <v>72.0</v>
@@ -33511,7 +33511,7 @@
         <v>4.0</v>
       </c>
       <c r="AM94" t="n" s="4">
-        <v>45.0</v>
+        <v>48.0</v>
       </c>
       <c r="AN94" t="n" s="4">
         <v>86.0</v>
@@ -33532,7 +33532,7 @@
         <v>0.0</v>
       </c>
       <c r="AT94" t="n" s="4">
-        <v>15.0</v>
+        <v>26.0</v>
       </c>
       <c r="AU94" t="n" s="4">
         <v>5.0</v>
@@ -33553,7 +33553,7 @@
         <v>0.0</v>
       </c>
       <c r="BA94" t="n" s="4">
-        <v>0.0</v>
+        <v>3.33</v>
       </c>
       <c r="BB94" t="n" s="4">
         <v>21.0</v>
@@ -34007,7 +34007,7 @@
         <v>4.0</v>
       </c>
       <c r="AM96" t="n" s="4">
-        <v>47.0</v>
+        <v>50.0</v>
       </c>
       <c r="AN96" t="n" s="4">
         <v>79.0</v>
@@ -34028,7 +34028,7 @@
         <v>0.0</v>
       </c>
       <c r="AT96" t="n" s="4">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="AU96" t="n" s="4">
         <v>5.0</v>
@@ -34049,7 +34049,7 @@
         <v>0.0</v>
       </c>
       <c r="BA96" t="n" s="4">
-        <v>0.0</v>
+        <v>3.44</v>
       </c>
       <c r="BB96" t="n" s="4">
         <v>21.0</v>
@@ -36128,7 +36128,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n" s="4">
-        <v>58.0</v>
+        <v>59.0</v>
       </c>
       <c r="C105" t="n" s="4">
         <v>64.0</v>
@@ -36239,7 +36239,7 @@
         <v>4.0</v>
       </c>
       <c r="AM105" t="n" s="4">
-        <v>45.0</v>
+        <v>49.0</v>
       </c>
       <c r="AN105" t="n" s="4">
         <v>86.0</v>
@@ -36260,7 +36260,7 @@
         <v>0.0</v>
       </c>
       <c r="AT105" t="n" s="4">
-        <v>15.0</v>
+        <v>27.0</v>
       </c>
       <c r="AU105" t="n" s="4">
         <v>0.0</v>
@@ -36281,7 +36281,7 @@
         <v>0.0</v>
       </c>
       <c r="BA105" t="n" s="4">
-        <v>0.0</v>
+        <v>3.75</v>
       </c>
       <c r="BB105" t="n" s="4">
         <v>21.0</v>
@@ -39959,7 +39959,7 @@
         <v>4.0</v>
       </c>
       <c r="AM120" t="n" s="4">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="AN120" t="n" s="4">
         <v>86.0</v>
@@ -39980,7 +39980,7 @@
         <v>0.0</v>
       </c>
       <c r="AT120" t="n" s="4">
-        <v>31.0</v>
+        <v>41.0</v>
       </c>
       <c r="AU120" t="n" s="4">
         <v>0.0</v>
@@ -40001,7 +40001,7 @@
         <v>0.0</v>
       </c>
       <c r="BA120" t="n" s="4">
-        <v>0.0</v>
+        <v>3.13</v>
       </c>
       <c r="BB120" t="n" s="4">
         <v>21.0</v>
@@ -40455,7 +40455,7 @@
         <v>4.0</v>
       </c>
       <c r="AM122" t="n" s="4">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="AN122" t="n" s="4">
         <v>86.0</v>
@@ -40476,7 +40476,7 @@
         <v>0.0</v>
       </c>
       <c r="AT122" t="n" s="4">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="AU122" t="n" s="4">
         <v>5.0</v>
@@ -40497,7 +40497,7 @@
         <v>0.0</v>
       </c>
       <c r="BA122" t="n" s="4">
-        <v>0.0</v>
+        <v>3.5</v>
       </c>
       <c r="BB122" t="n" s="4">
         <v>21.0</v>
@@ -40592,7 +40592,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n" s="4">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="C123" t="n" s="4">
         <v>61.0</v>
@@ -40703,7 +40703,7 @@
         <v>4.0</v>
       </c>
       <c r="AM123" t="n" s="4">
-        <v>50.0</v>
+        <v>53.0</v>
       </c>
       <c r="AN123" t="n" s="4">
         <v>86.0</v>
@@ -40724,7 +40724,7 @@
         <v>0.0</v>
       </c>
       <c r="AT123" t="n" s="4">
-        <v>31.0</v>
+        <v>42.0</v>
       </c>
       <c r="AU123" t="n" s="4">
         <v>5.0</v>
@@ -40745,7 +40745,7 @@
         <v>0.0</v>
       </c>
       <c r="BA123" t="n" s="4">
-        <v>0.0</v>
+        <v>3.75</v>
       </c>
       <c r="BB123" t="n" s="4">
         <v>21.0</v>
